--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -775,6 +775,45 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--record option</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">例） kubectl apply -f test.yaml </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--record</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1214,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH95"/>
+  <dimension ref="D2:AH103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB97" sqref="AB97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1785,8 +1824,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E101" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N60:S60"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="G57:M57"/>
+    <mergeCell ref="G58:M58"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="N55:S55"/>
+    <mergeCell ref="N56:S56"/>
+    <mergeCell ref="N57:S57"/>
+    <mergeCell ref="N58:S58"/>
+    <mergeCell ref="N59:S59"/>
     <mergeCell ref="Z60:AH60"/>
     <mergeCell ref="T55:Y55"/>
     <mergeCell ref="T56:Y56"/>
@@ -1799,18 +1870,6 @@
     <mergeCell ref="Z57:AH57"/>
     <mergeCell ref="Z58:AH58"/>
     <mergeCell ref="Z59:AH59"/>
-    <mergeCell ref="N60:S60"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="G57:M57"/>
-    <mergeCell ref="G58:M58"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="N55:S55"/>
-    <mergeCell ref="N56:S56"/>
-    <mergeCell ref="N57:S57"/>
-    <mergeCell ref="N58:S58"/>
-    <mergeCell ref="N59:S59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -814,6 +814,219 @@
     </r>
     <rPh sb="0" eb="1">
       <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録確認</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl rollout history deployment &lt;history名&gt;</t>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行したコマンドのstatus確認</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl rollout status deployment &lt;historiy名&gt;</t>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑がhistory名になる</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴詳細確認</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl describe deployment &lt;history名&gt;</t>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行取消</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最終バージョンをキャンセルし、最終バージョンの一つ前のバージョンに戻す</t>
+    <rPh sb="1" eb="3">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の時点に復旧させる</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kubectl rollout undo deployment &lt;history名&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--to-revision=1</t>
+    </r>
+    <rPh sb="40" eb="41">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kubectl rollout </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deploymnt &lt;histroy名&gt;</t>
+    </r>
+    <rPh sb="39" eb="40">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Service確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>service確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get services</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodePort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exposeコマンドでNodePortサービス生成</t>
+    <rPh sb="23" eb="25">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl expose deployment np-pods --type=NodePort --name=&lt;NodePort名&gt; --port=80</t>
+    <rPh sb="66" eb="67">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※exportコマンドでNodePortを生成した場合、ポート番号が「30000～32767」中で任意で指定される</t>
+    <rPh sb="21" eb="23">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1253,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH103"/>
+  <dimension ref="D2:AH129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB97" sqref="AB97"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1265,611 +1478,706 @@
     <col min="5" max="5" width="2" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="2" t="s">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="2" t="s">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F28" s="3"/>
-      <c r="G28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F29" s="3"/>
-      <c r="H29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="3"/>
-      <c r="H30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G35" t="s">
-        <v>61</v>
+      <c r="F35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G36" t="s">
-        <v>64</v>
+      <c r="F36" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="W37" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>65</v>
+      <c r="F37" s="3"/>
+      <c r="G37" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E40" s="2" t="s">
-        <v>19</v>
+      <c r="F38" s="3"/>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="4:29" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="W46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
         <v>25</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AC52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
+    <row r="53" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
+    <row r="55" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
+    <row r="56" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
+    <row r="58" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
+    <row r="59" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
+    <row r="60" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G52" t="s">
+    <row r="61" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G54" t="s">
+    <row r="63" spans="5:34" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="4:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="5" t="s">
+    <row r="64" spans="5:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5" t="s">
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5" t="s">
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-    </row>
-    <row r="56" spans="4:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G56" s="6" t="s">
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+    </row>
+    <row r="65" spans="4:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6" t="s">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6" t="s">
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6" t="s">
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="6"/>
-    </row>
-    <row r="57" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G57" s="4" t="s">
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+    </row>
+    <row r="66" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G66" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4" t="s">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4" t="s">
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4" t="s">
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-    </row>
-    <row r="58" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G58" s="4" t="s">
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+    </row>
+    <row r="67" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G67" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4" t="s">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4" t="s">
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4" t="s">
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-    </row>
-    <row r="59" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G59" s="4" t="s">
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+    </row>
+    <row r="68" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G68" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4" t="s">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4" t="s">
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4" t="s">
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-    </row>
-    <row r="60" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G60" s="4" t="s">
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+    </row>
+    <row r="69" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4" t="s">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4" t="s">
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4" t="s">
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
-    </row>
-    <row r="62" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="D62" s="1" t="s">
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+    </row>
+    <row r="71" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E64" s="2" t="s">
+    <row r="73" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
+    <row r="74" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F66" t="s">
+    <row r="75" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E68" s="2" t="s">
+    <row r="77" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F69" t="s">
+    <row r="78" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F70" t="s">
+    <row r="79" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
+    <row r="80" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
+    <row r="81" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E74" s="2" t="s">
+    <row r="83" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F75" t="s">
+    <row r="84" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
         <v>81</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F76" s="3" t="s">
+    <row r="85" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F85" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F77" s="3"/>
-      <c r="G77" t="s">
+    <row r="86" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F86" s="3"/>
+      <c r="G86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D79" s="1" t="s">
+    <row r="88" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E81" s="2" t="s">
+    <row r="90" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F82" t="s">
+    <row r="91" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E84" s="2" t="s">
+    <row r="93" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E93" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
+    <row r="95" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F87" t="s">
+    <row r="96" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F89" t="s">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F90" t="s">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D92" s="1" t="s">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E94" s="2" t="s">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E103" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F95" t="s">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D99" s="1" t="s">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D108" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E101" s="2" t="s">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E110" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="3" t="s">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F103" t="s">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="P113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E115" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E124" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N60:S60"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="G57:M57"/>
-    <mergeCell ref="G58:M58"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="N55:S55"/>
-    <mergeCell ref="N56:S56"/>
-    <mergeCell ref="N57:S57"/>
-    <mergeCell ref="N58:S58"/>
-    <mergeCell ref="N59:S59"/>
-    <mergeCell ref="Z60:AH60"/>
-    <mergeCell ref="T55:Y55"/>
-    <mergeCell ref="T56:Y56"/>
-    <mergeCell ref="T57:Y57"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="Z55:AH55"/>
-    <mergeCell ref="Z56:AH56"/>
-    <mergeCell ref="Z57:AH57"/>
-    <mergeCell ref="Z58:AH58"/>
-    <mergeCell ref="Z59:AH59"/>
+    <mergeCell ref="Z69:AH69"/>
+    <mergeCell ref="T64:Y64"/>
+    <mergeCell ref="T65:Y65"/>
+    <mergeCell ref="T66:Y66"/>
+    <mergeCell ref="T67:Y67"/>
+    <mergeCell ref="T68:Y68"/>
+    <mergeCell ref="T69:Y69"/>
+    <mergeCell ref="Z64:AH64"/>
+    <mergeCell ref="Z65:AH65"/>
+    <mergeCell ref="Z66:AH66"/>
+    <mergeCell ref="Z67:AH67"/>
+    <mergeCell ref="Z68:AH68"/>
+    <mergeCell ref="N69:S69"/>
+    <mergeCell ref="G64:M64"/>
+    <mergeCell ref="G65:M65"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="G68:M68"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="N64:S64"/>
+    <mergeCell ref="N65:S65"/>
+    <mergeCell ref="N66:S66"/>
+    <mergeCell ref="N67:S67"/>
+    <mergeCell ref="N68:S68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -1469,7 +1469,7 @@
   <dimension ref="D2:AH129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -2154,6 +2154,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N69:S69"/>
+    <mergeCell ref="G64:M64"/>
+    <mergeCell ref="G65:M65"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="G68:M68"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="N64:S64"/>
+    <mergeCell ref="N65:S65"/>
+    <mergeCell ref="N66:S66"/>
+    <mergeCell ref="N67:S67"/>
+    <mergeCell ref="N68:S68"/>
     <mergeCell ref="Z69:AH69"/>
     <mergeCell ref="T64:Y64"/>
     <mergeCell ref="T65:Y65"/>
@@ -2166,18 +2178,6 @@
     <mergeCell ref="Z66:AH66"/>
     <mergeCell ref="Z67:AH67"/>
     <mergeCell ref="Z68:AH68"/>
-    <mergeCell ref="N69:S69"/>
-    <mergeCell ref="G64:M64"/>
-    <mergeCell ref="G65:M65"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="G68:M68"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="N64:S64"/>
-    <mergeCell ref="N65:S65"/>
-    <mergeCell ref="N66:S66"/>
-    <mergeCell ref="N67:S67"/>
-    <mergeCell ref="N68:S68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1028,6 +1028,73 @@
     <rPh sb="52" eb="54">
       <t>シテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ingress確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get ingress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kubectl get services </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-n ingress-nginx</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「-n ingress-nginx」でnamespaceを指定しないといけない</t>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoadBalancer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>configmap 作成が必要。Configmap作成後、確認</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get configmap -n metallb-system</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get configmap -n metallb-system -o yaml</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1466,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH129"/>
+  <dimension ref="D2:AH140"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1529,655 +1596,695 @@
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="2" t="s">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="2" t="s">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F36" s="3" t="s">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F37" s="3"/>
-      <c r="G37" t="s">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="3"/>
+      <c r="G48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F38" s="3"/>
-      <c r="H38" t="s">
+    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F49" s="3"/>
+      <c r="H49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F39" s="3"/>
-      <c r="H39" t="s">
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F50" s="3"/>
+      <c r="H50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E41" s="2" t="s">
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E52" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
+    <row r="55" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="O46" t="s">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
         <v>63</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W57" t="s">
         <v>62</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AC57" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D47" s="1" t="s">
+    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="E49" s="2" t="s">
+    <row r="60" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
+    <row r="62" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
         <v>25</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="AC63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
+    <row r="66" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
+    <row r="67" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F58" t="s">
+    <row r="69" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
+    <row r="70" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
+    <row r="71" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="G61" t="s">
+    <row r="72" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="5:34" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
+    <row r="74" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="5:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="5" t="s">
+    <row r="75" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5" t="s">
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5" t="s">
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-    </row>
-    <row r="65" spans="4:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G65" s="6" t="s">
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+    </row>
+    <row r="76" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6" t="s">
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6" t="s">
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6" t="s">
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
-      <c r="AH65" s="6"/>
-    </row>
-    <row r="66" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G66" s="4" t="s">
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+    </row>
+    <row r="77" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G77" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4" t="s">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4" t="s">
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4" t="s">
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
-    </row>
-    <row r="67" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G67" s="4" t="s">
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+    </row>
+    <row r="78" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G78" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4" t="s">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4" t="s">
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4" t="s">
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
-    </row>
-    <row r="68" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G68" s="4" t="s">
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+    </row>
+    <row r="79" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G79" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4" t="s">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4" t="s">
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4" t="s">
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-      <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
-    </row>
-    <row r="69" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G69" s="4" t="s">
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+    </row>
+    <row r="80" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G80" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4" t="s">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4" t="s">
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4" t="s">
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
-    </row>
-    <row r="71" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="D71" s="1" t="s">
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+    </row>
+    <row r="82" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E73" s="2" t="s">
+    <row r="84" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E84" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F74" t="s">
+    <row r="85" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F75" t="s">
+    <row r="86" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="E77" s="2" t="s">
+    <row r="88" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E88" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F78" t="s">
+    <row r="89" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="F79" t="s">
+    <row r="90" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
+    <row r="91" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
+    <row r="92" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E83" s="2" t="s">
+    <row r="94" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E94" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="R84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F85" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F86" s="3"/>
-      <c r="G86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D88" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E90" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E93" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="95" spans="4:18" x14ac:dyDescent="0.2">
       <c r="F95" t="s">
+        <v>81</v>
+      </c>
+      <c r="R95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F96" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F97" s="3"/>
+      <c r="G97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E101" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E104" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F96" t="s">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F98" t="s">
+    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F99" t="s">
+    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D101" s="1" t="s">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D112" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E103" s="2" t="s">
+    <row r="114" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E114" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F104" t="s">
+    <row r="115" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D108" s="1" t="s">
+    <row r="119" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D119" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E110" s="2" t="s">
+    <row r="121" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E121" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="3" t="s">
+    <row r="122" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F122" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F112" t="s">
+    <row r="123" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="P113" t="s">
+    <row r="124" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="P124" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E115" s="2" t="s">
+    <row r="126" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E126" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F116" t="s">
+    <row r="127" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F118" t="s">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F119" t="s">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F121" t="s">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F122" t="s">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E124" s="2" t="s">
+    <row r="135" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E135" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F125" t="s">
+    <row r="136" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G126" t="s">
+    <row r="137" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F128" t="s">
+    <row r="139" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F129" t="s">
+    <row r="140" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="N69:S69"/>
-    <mergeCell ref="G64:M64"/>
-    <mergeCell ref="G65:M65"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="G68:M68"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="N64:S64"/>
-    <mergeCell ref="N65:S65"/>
-    <mergeCell ref="N66:S66"/>
-    <mergeCell ref="N67:S67"/>
-    <mergeCell ref="N68:S68"/>
-    <mergeCell ref="Z69:AH69"/>
-    <mergeCell ref="T64:Y64"/>
-    <mergeCell ref="T65:Y65"/>
-    <mergeCell ref="T66:Y66"/>
-    <mergeCell ref="T67:Y67"/>
-    <mergeCell ref="T68:Y68"/>
-    <mergeCell ref="T69:Y69"/>
-    <mergeCell ref="Z64:AH64"/>
-    <mergeCell ref="Z65:AH65"/>
-    <mergeCell ref="Z66:AH66"/>
-    <mergeCell ref="Z67:AH67"/>
-    <mergeCell ref="Z68:AH68"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="T75:Y75"/>
+    <mergeCell ref="T76:Y76"/>
+    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="Z75:AH75"/>
+    <mergeCell ref="Z76:AH76"/>
+    <mergeCell ref="Z77:AH77"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="G75:M75"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="N75:S75"/>
+    <mergeCell ref="N76:S76"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1095,6 +1095,29 @@
   </si>
   <si>
     <t>kubectl get configmap -n metallb-system -o yaml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exposeコマンドでLoadBalancerサービス生成</t>
+    <rPh sb="27" eb="29">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl expose deployment &lt;pod名&gt; --type=LoadBalancer --name=&lt;サービス名&gt; --port=&lt;外部からアクセスするport番号&gt;</t>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1533,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH140"/>
+  <dimension ref="D2:AH143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1636,390 +1659,286 @@
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
+    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F47" s="3" t="s">
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F48" s="3"/>
-      <c r="G48" t="s">
+    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F51" s="3"/>
+      <c r="G51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F49" s="3"/>
-      <c r="H49" t="s">
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F52" s="3"/>
+      <c r="H52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F50" s="3"/>
-      <c r="H50" t="s">
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F53" s="3"/>
+      <c r="H53" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E52" s="2" t="s">
+    <row r="55" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E55" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F54" t="s">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G55" t="s">
+    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
+    <row r="59" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="O57" t="s">
+    <row r="60" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
         <v>63</v>
       </c>
-      <c r="W57" t="s">
+      <c r="W60" t="s">
         <v>62</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AC60" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D58" s="1" t="s">
+    <row r="61" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E60" s="2" t="s">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
+    <row r="65" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="F64" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="66" spans="6:34" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="6:34" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="6:34" x14ac:dyDescent="0.2">
       <c r="F69" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="6:34" x14ac:dyDescent="0.2">
       <c r="F70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="74" spans="6:34" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="6:34" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="5" t="s">
+    <row r="78" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5" t="s">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5" t="s">
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5" t="s">
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-      <c r="AH75" s="5"/>
-    </row>
-    <row r="76" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G76" s="6" t="s">
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+    </row>
+    <row r="79" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6" t="s">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6" t="s">
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6" t="s">
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AA76" s="6"/>
-      <c r="AB76" s="6"/>
-      <c r="AC76" s="6"/>
-      <c r="AD76" s="6"/>
-      <c r="AE76" s="6"/>
-      <c r="AF76" s="6"/>
-      <c r="AG76" s="6"/>
-      <c r="AH76" s="6"/>
-    </row>
-    <row r="77" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G77" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-    </row>
-    <row r="78" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G78" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
-    </row>
-    <row r="79" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G79" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-      <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
     </row>
     <row r="80" spans="6:34" x14ac:dyDescent="0.2">
       <c r="G80" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -2028,7 +1947,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -2044,7 +1963,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
@@ -2055,236 +1974,350 @@
       <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
     </row>
-    <row r="82" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D82" s="1" t="s">
+    <row r="81" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+    </row>
+    <row r="82" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+    </row>
+    <row r="83" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+    </row>
+    <row r="85" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E84" s="2" t="s">
+    <row r="87" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F85" t="s">
+    <row r="88" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
+    <row r="89" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E88" s="2" t="s">
+    <row r="91" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="E91" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F89" t="s">
+    <row r="92" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F90" t="s">
+    <row r="93" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
+    <row r="94" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="G92" t="s">
+    <row r="95" spans="4:34" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E94" s="2" t="s">
+    <row r="97" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E97" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F95" t="s">
+    <row r="98" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
         <v>81</v>
       </c>
-      <c r="R95" t="s">
+      <c r="R98" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F96" s="3" t="s">
+    <row r="99" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F99" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F97" s="3"/>
-      <c r="G97" t="s">
+    <row r="100" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F100" s="3"/>
+      <c r="G100" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D99" s="1" t="s">
+    <row r="102" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D102" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E101" s="2" t="s">
+    <row r="104" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E104" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F102" t="s">
+    <row r="105" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E104" s="2" t="s">
+    <row r="107" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E107" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F106" t="s">
+    <row r="109" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F107" t="s">
+    <row r="110" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F109" t="s">
+    <row r="112" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F110" t="s">
+    <row r="113" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D112" s="1" t="s">
+    <row r="115" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D115" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E114" s="2" t="s">
+    <row r="117" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E117" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F115" t="s">
+    <row r="118" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D119" s="1" t="s">
+    <row r="122" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D122" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E121" s="2" t="s">
+    <row r="124" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E124" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F122" s="3" t="s">
+    <row r="125" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F125" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F123" t="s">
+    <row r="126" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="P124" t="s">
+    <row r="127" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="P127" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="126" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E126" s="2" t="s">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E129" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F127" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F129" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="130" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E135" s="2" t="s">
-        <v>96</v>
+      <c r="F135" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F136" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G137" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E138" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F139" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F140" t="s">
+    <row r="143" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="T75:Y75"/>
-    <mergeCell ref="T76:Y76"/>
-    <mergeCell ref="T77:Y77"/>
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="N81:S81"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="Z83:AH83"/>
     <mergeCell ref="T78:Y78"/>
     <mergeCell ref="T79:Y79"/>
     <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="Z75:AH75"/>
-    <mergeCell ref="Z76:AH76"/>
-    <mergeCell ref="Z77:AH77"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
     <mergeCell ref="Z78:AH78"/>
     <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="N80:S80"/>
-    <mergeCell ref="G75:M75"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="N75:S75"/>
-    <mergeCell ref="N76:S76"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1118,6 +1118,110 @@
     <rPh sb="90" eb="92">
       <t>バンゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPA(Horizontal Pod Autoscaler)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負荷確認</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl top pods</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動中のpod設定修正(yamlファイル修正)</t>
+    <rPh sb="0" eb="3">
+      <t>キドウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl edit deployment &lt;pod名&gt;</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autoscale適用</t>
+    <rPh sb="9" eb="11">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ex) kubectl autoscale deployment hpa-hname-pods --min=1 --max=30 --cpu-percent=50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最小１PODで最大30POD。CPU使用率が50%超えるとautoscaleする。</t>
+    <rPh sb="1" eb="3">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シヨウリツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl autoscale deployment &lt;pod名&gt; --min=&lt;最小値&gt; --max=&lt;最大値&gt; --cpu-percent=&lt;auto scale基準値&gt;</t>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPA状況確認</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get hpa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1556,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH143"/>
+  <dimension ref="D2:AH159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -2192,108 +2296,175 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F113" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D115" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E117" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F118" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D122" s="1" t="s">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E120" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D124" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E124" s="2" t="s">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E126" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F125" s="3" t="s">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F126" t="s">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="P127" t="s">
+    <row r="129" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="P129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E129" s="2" t="s">
+    <row r="131" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E131" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F130" t="s">
+    <row r="132" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F132" t="s">
+    <row r="134" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F133" t="s">
+    <row r="135" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F135" t="s">
+    <row r="137" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F136" t="s">
+    <row r="138" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E138" s="2" t="s">
+    <row r="140" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E140" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F139" t="s">
+    <row r="141" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G140" t="s">
+    <row r="142" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F142" t="s">
+    <row r="144" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F143" t="s">
+    <row r="145" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E150" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E153" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H156" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E158" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z83:AH83"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
     <mergeCell ref="N83:S83"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:M79"/>
@@ -2306,18 +2477,6 @@
     <mergeCell ref="N80:S80"/>
     <mergeCell ref="N81:S81"/>
     <mergeCell ref="N82:S82"/>
-    <mergeCell ref="Z83:AH83"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z78:AH78"/>
-    <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="Z81:AH81"/>
-    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1222,6 +1222,137 @@
   </si>
   <si>
     <t>kubectl get hpa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV, PVC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nfs作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mkdir &lt;nfs directory&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo '&lt;nfs direcotry&gt; 192.168.1.0/24(rw,sync,no_root_squash)' &gt;&gt; /etc/exports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※rw -&gt; read/write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※sync -&gt; 書き込み作業の同期化</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ドウキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※no_root_squash -&gt; rootユーザ使用</t>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemctl enable --now nfs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※NFSサーバ活性化</t>
+    <rPh sb="7" eb="9">
+      <t>カッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV確認</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get pv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PVC確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl get pvc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容量制限削除</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl delete limitrange &lt;limitrange名（yamlで指定した名前）&gt;</t>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース制限削除</t>
+    <rPh sb="4" eb="6">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubectl delete resourcequotas &lt;resourcequota名(yamlで指定した名前)&gt;</t>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1660,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH159"/>
+  <dimension ref="D2:AH173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -2451,8 +2582,65 @@
         <v>128</v>
       </c>
     </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E163" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E166" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E169" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E172" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="N81:S81"/>
+    <mergeCell ref="N82:S82"/>
     <mergeCell ref="Z83:AH83"/>
     <mergeCell ref="T78:Y78"/>
     <mergeCell ref="T79:Y79"/>
@@ -2465,18 +2653,6 @@
     <mergeCell ref="Z80:AH80"/>
     <mergeCell ref="Z81:AH81"/>
     <mergeCell ref="Z82:AH82"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:S79"/>
-    <mergeCell ref="N80:S80"/>
-    <mergeCell ref="N81:S81"/>
-    <mergeCell ref="N82:S82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2486,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:F8"/>
+  <dimension ref="D4:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -2497,24 +2673,64 @@
     <col min="4" max="4" width="2" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="command" sheetId="1" r:id="rId1"/>
-    <sheet name="command_linux" sheetId="2" r:id="rId2"/>
+    <sheet name="kubernetes理解" sheetId="3" r:id="rId1"/>
+    <sheet name="command" sheetId="1" r:id="rId2"/>
+    <sheet name="command_linux" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1352,6 +1353,67 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Container Infra 環境とは</t>
+    <rPh sb="16" eb="18">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linux OSのKernel一つに複数のContainerが隔離された状態で実行されるInfra環境と言う。</t>
+    <rPh sb="15" eb="16">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで、Containerは１つ以上の目的のために独立して動作するプロセスである。</t>
+    <rPh sb="16" eb="18">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想化環境</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1502,6 +1564,918 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="2552700"/>
+          <a:ext cx="1623060" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>物理端末</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="1554480"/>
+          <a:ext cx="792480" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(OS Kenel)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516380" y="1554480"/>
+          <a:ext cx="731520" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(OS Kernel)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="944880"/>
+          <a:ext cx="792480" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516380" y="944880"/>
+          <a:ext cx="731520" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926080" y="2552700"/>
+          <a:ext cx="1623060" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>kernel</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="2141220"/>
+          <a:ext cx="1623060" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hyper-V</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="2156460"/>
+          <a:ext cx="1615440" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OS Kernel</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="1562100"/>
+          <a:ext cx="381000" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>App</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368040" y="1562100"/>
+          <a:ext cx="381000" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>App</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="1562100"/>
+          <a:ext cx="381000" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>App</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4198620" y="1562100"/>
+          <a:ext cx="381000" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>App</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1791,10 +2765,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:I19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI34" sqref="AI34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AH173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU170" sqref="AU170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -2629,6 +3641,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z83:AH83"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
     <mergeCell ref="N83:S83"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:M79"/>
@@ -2641,18 +3665,6 @@
     <mergeCell ref="N80:S80"/>
     <mergeCell ref="N81:S81"/>
     <mergeCell ref="N82:S82"/>
-    <mergeCell ref="Z83:AH83"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z78:AH78"/>
-    <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="Z81:AH81"/>
-    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2660,7 +3672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:U21"/>
   <sheetViews>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -1570,6 +1570,60 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="3863340"/>
+          <a:ext cx="1508760" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -2473,6 +2527,1037 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="5052060"/>
+          <a:ext cx="4175760" cy="3749040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master Node</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="육각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="899160" y="5615940"/>
+          <a:ext cx="701040" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>etcd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="육각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="6659880"/>
+          <a:ext cx="853440" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Control</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+            <a:t> Manager</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="육각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="7612380"/>
+          <a:ext cx="769620" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Scheduler</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="5059680"/>
+          <a:ext cx="190500" cy="3749040"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>API</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SERVER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3352800" y="4907280"/>
+          <a:ext cx="914400" cy="487680"/>
+          <a:chOff x="3436620" y="4907280"/>
+          <a:chExt cx="914400" cy="487680"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="직사각형 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="5021580"/>
+            <a:ext cx="906780" cy="373380"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>&gt; kubectl</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="직사각형 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="4907280"/>
+            <a:ext cx="914400" cy="129540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500"/>
+              <a:t>・・・</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="그룹 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3322320" y="6179820"/>
+          <a:ext cx="914400" cy="487680"/>
+          <a:chOff x="3436620" y="4907280"/>
+          <a:chExt cx="914400" cy="487680"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="직사각형 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="5021580"/>
+            <a:ext cx="906780" cy="373380"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Kubelet</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="직사각형 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="4907280"/>
+            <a:ext cx="914400" cy="129540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・・・</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="순서도: 지연 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1472565" y="4364355"/>
+          <a:ext cx="499110" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDelay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="타원 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1531620" y="4069080"/>
+          <a:ext cx="396240" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="순서도: 지연 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2165985" y="4364355"/>
+          <a:ext cx="499110" cy="510540"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDelay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="타원 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225040" y="4069080"/>
+          <a:ext cx="396240" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="꺾인 연결선 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2804160" y="4434840"/>
+          <a:ext cx="1005840" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="꺾인 연결선 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2804160" y="4434840"/>
+          <a:ext cx="1939290" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="꺾인 연결선 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4112895" y="5088255"/>
+          <a:ext cx="228600" cy="842010"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2767,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI34" sqref="AI34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="BC32" sqref="BC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3641,6 +4726,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="N81:S81"/>
+    <mergeCell ref="N82:S82"/>
     <mergeCell ref="Z83:AH83"/>
     <mergeCell ref="T78:Y78"/>
     <mergeCell ref="T79:Y79"/>
@@ -3653,18 +4750,6 @@
     <mergeCell ref="Z80:AH80"/>
     <mergeCell ref="Z81:AH81"/>
     <mergeCell ref="Z82:AH82"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:S79"/>
-    <mergeCell ref="N80:S80"/>
-    <mergeCell ref="N81:S81"/>
-    <mergeCell ref="N82:S82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="kubernetes理解" sheetId="3" r:id="rId1"/>
@@ -2917,8 +2917,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3352800" y="4907280"/>
-          <a:ext cx="914400" cy="487680"/>
+          <a:off x="3718560" y="5017770"/>
+          <a:ext cx="1021080" cy="499110"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -3034,13 +3034,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>59055</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>150495</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -3051,8 +3051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3322320" y="6179820"/>
-          <a:ext cx="914400" cy="487680"/>
+          <a:off x="3716655" y="6316980"/>
+          <a:ext cx="1005840" cy="499110"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -3536,6 +3536,57 @@
           <a:ext cx="228600" cy="842010"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>110046</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4219575" y="5516880"/>
+          <a:ext cx="5271" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -3852,28 +3903,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="BC32" sqref="BC32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="BB38" sqref="BB38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I19" t="s">
         <v>149</v>
       </c>
@@ -3894,7 +3945,7 @@
       <selection activeCell="AU170" sqref="AU170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="2" style="1"/>
     <col min="5" max="5" width="2" style="2"/>
@@ -4192,7 +4243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G78" s="5" t="s">
         <v>42</v>
       </c>
@@ -4230,7 +4281,7 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
     </row>
-    <row r="79" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:34" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G79" s="6" t="s">
         <v>43</v>
       </c>
@@ -4726,6 +4777,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z83:AH83"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
     <mergeCell ref="N83:S83"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:M79"/>
@@ -4738,18 +4801,6 @@
     <mergeCell ref="N80:S80"/>
     <mergeCell ref="N81:S81"/>
     <mergeCell ref="N82:S82"/>
-    <mergeCell ref="Z83:AH83"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z78:AH78"/>
-    <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="Z81:AH81"/>
-    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4765,7 +4816,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="2" style="1"/>
   </cols>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="kubernetes理解" sheetId="3" r:id="rId1"/>
@@ -2531,16 +2531,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="541020" y="5052060"/>
+          <a:off x="571500" y="5044440"/>
           <a:ext cx="4175760" cy="3749040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2678,13 +2678,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2693,7 +2693,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="6659880"/>
+          <a:off x="800100" y="6637020"/>
           <a:ext cx="853440" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
@@ -2750,13 +2750,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -2767,7 +2767,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="7612380"/>
+          <a:off x="830580" y="7612380"/>
           <a:ext cx="769620" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
@@ -2917,8 +2917,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3718560" y="5017770"/>
-          <a:ext cx="1021080" cy="499110"/>
+          <a:off x="3352800" y="4907280"/>
+          <a:ext cx="914400" cy="487680"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -3051,8 +3051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3716655" y="6316980"/>
-          <a:ext cx="1005840" cy="499110"/>
+          <a:off x="3350895" y="6179820"/>
+          <a:ext cx="899160" cy="487680"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -3562,32 +3562,3922 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>127762</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>110046</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="꺾인 연결선 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4242562" y="6480810"/>
+          <a:ext cx="405638" cy="453390"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="직선 화살표 연결선 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1653540" y="6934200"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="꺾인 연결선 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="5920740"/>
+          <a:ext cx="3048000" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="꺾인 연결선 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1600200" y="6934200"/>
+          <a:ext cx="3048000" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="위쪽/아래쪽 화살표 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5036820" y="4953000"/>
+          <a:ext cx="601980" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NETWORK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> PLUGIN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="직사각형 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="548640" y="8793480"/>
+          <a:ext cx="4312920" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>kube-proxy</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="직사각형 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="6355080"/>
+          <a:ext cx="1188720" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Container Runtime</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="직선 화살표 연결선 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2880360" y="6480810"/>
+          <a:ext cx="470535" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="직선 화살표 연결선 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="6214110"/>
+          <a:ext cx="470535" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="그룹 85"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5827395" y="5128260"/>
+          <a:ext cx="4086225" cy="1051560"/>
+          <a:chOff x="5827395" y="4983480"/>
+          <a:chExt cx="4086225" cy="1051560"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="직사각형 61"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6065520" y="5181600"/>
+            <a:ext cx="3848100" cy="853440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node#1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="직사각형 60"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6073140" y="4983480"/>
+            <a:ext cx="3827812" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>kube-proxy</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="63" name="그룹 62"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5827395" y="5189220"/>
+            <a:ext cx="899160" cy="487680"/>
+            <a:chOff x="3436620" y="4907280"/>
+            <a:chExt cx="914400" cy="487680"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="직사각형 63"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="5021580"/>
+              <a:ext cx="906780" cy="373380"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Kubelet</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="직사각형 64"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="4907280"/>
+              <a:ext cx="914400" cy="129540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・・・</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="직사각형 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7360920" y="5608320"/>
+            <a:ext cx="1188720" cy="251460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Container Runtime</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="직사각형 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5257800"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="직사각형 67"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5257800"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="직사각형 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5509260"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="직사각형 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5509260"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="직사각형 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5760720"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="직사각형 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5760720"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="73" name="꺾인 연결선 72"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="64" idx="3"/>
+            <a:endCxn id="66" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6719062" y="5490210"/>
+            <a:ext cx="641858" cy="243840"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="77" name="꺾인 연결선 76"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="62" idx="0"/>
+            <a:endCxn id="67" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="8378190" y="4792980"/>
+            <a:ext cx="179070" cy="956310"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 89361"/>
+              <a:gd name="adj2" fmla="val 398"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="87" name="그룹 86"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5835015" y="6431280"/>
+          <a:ext cx="4086225" cy="1051560"/>
+          <a:chOff x="5827395" y="4983480"/>
+          <a:chExt cx="4086225" cy="1051560"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="직사각형 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6065520" y="5181600"/>
+            <a:ext cx="3848100" cy="853440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node#2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="직사각형 88"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6073140" y="4983480"/>
+            <a:ext cx="3827812" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>kube-proxy</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="90" name="그룹 89"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5827395" y="5189220"/>
+            <a:ext cx="899160" cy="487680"/>
+            <a:chOff x="3436620" y="4907280"/>
+            <a:chExt cx="914400" cy="487680"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="직사각형 99"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="5021580"/>
+              <a:ext cx="906780" cy="373380"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Kubelet</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="101" name="직사각형 100"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="4907280"/>
+              <a:ext cx="914400" cy="129540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・・・</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="직사각형 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7360920" y="5608320"/>
+            <a:ext cx="1188720" cy="251460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Container Runtime</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="직사각형 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5257800"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="직사각형 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5257800"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="직사각형 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5509260"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="직사각형 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5509260"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="직사각형 95"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5760720"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="직사각형 96"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5760720"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="98" name="꺾인 연결선 97"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="100" idx="3"/>
+            <a:endCxn id="91" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6719062" y="5490210"/>
+            <a:ext cx="641858" cy="243840"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="99" name="꺾인 연결선 98"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="88" idx="0"/>
+            <a:endCxn id="92" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="8378190" y="4792980"/>
+            <a:ext cx="179070" cy="956310"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 89361"/>
+              <a:gd name="adj2" fmla="val 398"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="102" name="그룹 101"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5835015" y="7688580"/>
+          <a:ext cx="4086225" cy="1051560"/>
+          <a:chOff x="5827395" y="4983480"/>
+          <a:chExt cx="4086225" cy="1051560"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="직사각형 102"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6065520" y="5181600"/>
+            <a:ext cx="3848100" cy="853440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node#3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="직사각형 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6073140" y="4983480"/>
+            <a:ext cx="3827812" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>kube-proxy</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="105" name="그룹 104"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5827395" y="5189220"/>
+            <a:ext cx="899160" cy="487680"/>
+            <a:chOff x="3436620" y="4907280"/>
+            <a:chExt cx="914400" cy="487680"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="115" name="직사각형 114"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="5021580"/>
+              <a:ext cx="906780" cy="373380"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Kubelet</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="116" name="직사각형 115"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="4907280"/>
+              <a:ext cx="914400" cy="129540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・・・</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="직사각형 105"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7360920" y="5608320"/>
+            <a:ext cx="1188720" cy="251460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Container Runtime</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="직사각형 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5257800"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="직사각형 107"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5257800"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="직사각형 108"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5509260"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="직사각형 109"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5509260"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="직사각형 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8945880" y="5760720"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="직사각형 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9433560" y="5760720"/>
+            <a:ext cx="434340" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="113" name="꺾인 연결선 112"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="115" idx="3"/>
+            <a:endCxn id="106" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6719062" y="5490210"/>
+            <a:ext cx="641858" cy="243840"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="114" name="꺾인 연결선 113"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="103" idx="0"/>
+            <a:endCxn id="107" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="8378190" y="4792980"/>
+            <a:ext cx="179070" cy="956310"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 89361"/>
+              <a:gd name="adj2" fmla="val 398"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="직선 화살표 연결선 35"/>
+        <xdr:cNvPr id="118" name="직선 화살표 연결선 117"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="2"/>
-          <a:endCxn id="24" idx="0"/>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="100" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4219575" y="5516880"/>
-          <a:ext cx="5271" cy="800100"/>
+        <a:xfrm>
+          <a:off x="4838700" y="6934200"/>
+          <a:ext cx="996315" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="꺾인 연결선 116"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4838700" y="5634990"/>
+          <a:ext cx="988695" cy="1299210"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20713"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="꺾인 연결선 125"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="115" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="6934200"/>
+          <a:ext cx="996315" cy="1261110"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20172"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="꺾인 연결선 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="1"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="6073140" y="5223510"/>
+          <a:ext cx="7620" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="꺾인 연결선 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="1"/>
+          <a:endCxn id="104" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6080760" y="6526530"/>
+          <a:ext cx="12700" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3240000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="직선 화살표 연결선 138"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8587740" y="5882640"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="직선 화살표 연결선 140"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8587740" y="7193280"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="직선 화살표 연결선 141"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8587740" y="8458200"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="150" name="그룹 149"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8702040" y="3870960"/>
+          <a:ext cx="1181100" cy="1074420"/>
+          <a:chOff x="8366760" y="3779520"/>
+          <a:chExt cx="1181100" cy="1074420"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="직사각형 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8366760" y="3779520"/>
+            <a:ext cx="1181100" cy="1074420"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="순서도: 지연 143"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="9022080" y="4191000"/>
+            <a:ext cx="339090" cy="377190"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDelay">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="타원 144"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9044940" y="3992880"/>
+            <a:ext cx="292744" cy="248493"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="순서도: 지연 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="8534400" y="4191000"/>
+            <a:ext cx="339090" cy="377190"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDelay">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="타원 146"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8557260" y="3992880"/>
+            <a:ext cx="292744" cy="248493"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="순서도: 지연 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="8778240" y="4396740"/>
+            <a:ext cx="339090" cy="377190"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDelay">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="타원 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8801100" y="4198620"/>
+            <a:ext cx="292744" cy="248493"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="TextBox 150"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501140" y="3878580"/>
+          <a:ext cx="502920" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>管理者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="TextBox 151"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2186940" y="3878580"/>
+          <a:ext cx="502920" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開発者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="TextBox 152"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9060180" y="3878580"/>
+          <a:ext cx="502920" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>25432</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="꺾인 연결선 153"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="3"/>
+          <a:endCxn id="61" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9883140" y="4408170"/>
+          <a:ext cx="17812" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1383404"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>33052</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="꺾인 연결선 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="3"/>
+          <a:endCxn id="89" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9883140" y="4408170"/>
+          <a:ext cx="25432" cy="2118360"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 998868"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>33052</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="꺾인 연결선 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="3"/>
+          <a:endCxn id="104" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9883140" y="4408170"/>
+          <a:ext cx="25432" cy="3375660"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 998868"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
@@ -3903,28 +7793,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="BB38" sqref="BB38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="CC32" sqref="CC32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>149</v>
       </c>
@@ -3945,7 +7835,7 @@
       <selection activeCell="AU170" sqref="AU170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="2" style="1"/>
     <col min="5" max="5" width="2" style="2"/>
@@ -4243,7 +8133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="6:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G78" s="5" t="s">
         <v>42</v>
       </c>
@@ -4281,7 +8171,7 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
     </row>
-    <row r="79" spans="6:34" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G79" s="6" t="s">
         <v>43</v>
       </c>
@@ -4777,6 +8667,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="N81:S81"/>
+    <mergeCell ref="N82:S82"/>
     <mergeCell ref="Z83:AH83"/>
     <mergeCell ref="T78:Y78"/>
     <mergeCell ref="T79:Y79"/>
@@ -4789,18 +8691,6 @@
     <mergeCell ref="Z80:AH80"/>
     <mergeCell ref="Z81:AH81"/>
     <mergeCell ref="Z82:AH82"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:S79"/>
-    <mergeCell ref="N80:S80"/>
-    <mergeCell ref="N81:S81"/>
-    <mergeCell ref="N82:S82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4816,7 +8706,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="2" style="1"/>
   </cols>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1417,12 +1417,308 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Master Node</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetes Clusterに命令する役割。他の要素とはちがくコマンド型のbinaryであるため、必ずしもMasterNodeにある必要はない。</t>
+    <rPh sb="19" eb="21">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetes Clusterのセンター役割を担当する通路である。主に、Statusを保存するetcdと通信するが、</t>
+    <rPh sb="23" eb="25">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の要素もAPIServerをセンターにおいて通信する。管理者のような役割。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライマリーデータストアであり、すべての Kubernetes クラスタの状態を保存および複製する。</t>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 kubectl:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 API Server:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 etcd:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 ControllerManager:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetes ClusterのObjectを管理する。ObjectのStatusチェック、復旧、POD生成、EndPoint Controllerなど。</t>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4 Scheduler:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodeのStatus、resource、Label、要求条件などを考慮し、PodをどのWorker Nodeに生成するかを決定し割り当てる。</t>
+    <rPh sb="27" eb="29">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり、Podを条件に合うWorkerNodeに指定し、PodがWorkerNodeに割り当てられる日程を管理する役割。</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニッテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Worker Node</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5 kubelet:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Podの構成（PodSpec)を受け取り、Container Runtimeに伝送し、Pod中のContainerたちが正常に動作するかをモニタリングする。</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>デンソウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6 Container Runtime(CRI, Container Runtime Interface):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pod中のContainer実行を担当。</t>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7 Pod:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つ以上のContainerで単一の目的のために集まった単位。つまり、Webサーバにもなりえるし、ログやデータ分析のサーバにもなりえる。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ここで重要なのは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いつでも無くなれる存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>であること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,6 +1760,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1555,6 +1859,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC1FFCD"/>
+      <color rgb="FFFFFF93"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2734,14 +3044,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>Control</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Controller</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
             <a:t> Manager</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7501,6 +7811,714 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3375660" y="4632960"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="TextBox 118"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="4899660"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="TextBox 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1706880" y="5600700"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="TextBox 120"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1706880" y="6659880"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="TextBox 121"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1706880" y="7612380"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="TextBox 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722620" y="4968240"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="TextBox 123"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7101840" y="5509260"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="TextBox 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="5593080"/>
+          <a:ext cx="236220" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF93"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="TextBox 126"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="5295900"/>
+          <a:ext cx="281940" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C1FFCD"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="TextBox 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3208020" y="7688580"/>
+          <a:ext cx="281940" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C1FFCD"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="모서리가 둥근 직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3223260" y="7932420"/>
+          <a:ext cx="792480" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CoreDNS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7791,10 +8809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:I19"/>
+  <dimension ref="D2:AF71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="CC32" sqref="CC32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="BA70" sqref="BA70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7817,6 +8835,95 @@
     <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E57" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="L60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E67" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -8667,6 +9774,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z83:AH83"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
     <mergeCell ref="N83:S83"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:M79"/>
@@ -8679,18 +9798,6 @@
     <mergeCell ref="N80:S80"/>
     <mergeCell ref="N81:S81"/>
     <mergeCell ref="N82:S82"/>
-    <mergeCell ref="Z83:AH83"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z78:AH78"/>
-    <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="Z81:AH81"/>
-    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1711,6 +1711,79 @@
     <rPh sb="18" eb="20">
       <t>ソンザイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※0から7までは基本設定で、kubernetesでの通信の流れを表しています。</t>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11 Network Plugin:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kubernetes klusterの通信の為には、Network Pluginを選択し、構成する必要がある。</t>
+    <rPh sb="19" eb="21">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Network Pluginは一般的にはCNIで構成するが、主に使用されるCNIには「Calico, Flannel, Cilium, Kube-router, Romana, WeaveNet, Canalがある。</t>
+    <rPh sb="15" eb="17">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12 CoreDNS:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※CNI (Container Network Interface)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -8809,10 +8882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AF71"/>
+  <dimension ref="D2:AF79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="BA70" sqref="BA70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="Z78" sqref="Z78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8924,6 +8997,37 @@
     <row r="71" spans="5:32" x14ac:dyDescent="0.2">
       <c r="I71" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="Z77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L79" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -9774,6 +9878,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="N81:S81"/>
+    <mergeCell ref="N82:S82"/>
     <mergeCell ref="Z83:AH83"/>
     <mergeCell ref="T78:Y78"/>
     <mergeCell ref="T79:Y79"/>
@@ -9786,18 +9902,6 @@
     <mergeCell ref="Z80:AH80"/>
     <mergeCell ref="Z81:AH81"/>
     <mergeCell ref="Z82:AH82"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:S79"/>
-    <mergeCell ref="N80:S80"/>
-    <mergeCell ref="N81:S81"/>
-    <mergeCell ref="N82:S82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="183">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1786,12 +1786,74 @@
     <t>※CNI (Container Network Interface)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Kubernetes Clusterではdomain nameを用いて通信するが、その時に使用される。</t>
+    <rPh sb="32" eb="33">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※kube-proxy: Kubernetes ClusterはPodが位置しているNodeにkube-proxyを通してPodとの通信ができるNetworkの設定を行う。</t>
+    <rPh sb="36" eb="38">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時に実際の通信はbr_netfilterとiptablesで管理する。</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PodのLife cycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetesの構成図</t>
+    <rPh sb="11" eb="14">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1904,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -1918,7 +1989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1926,6 +1997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1955,13 +2027,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2916,13 +2988,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2991,13 +3063,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3059,15 +3131,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>90095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3076,8 +3148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="6637020"/>
-          <a:ext cx="853440" cy="609600"/>
+          <a:off x="699247" y="7145319"/>
+          <a:ext cx="922020" cy="600188"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -3134,13 +3206,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3203,13 +3275,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3284,13 +3356,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3300,8 +3372,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3352800" y="4907280"/>
-          <a:ext cx="914400" cy="487680"/>
+          <a:off x="3288254" y="5397649"/>
+          <a:ext cx="895574" cy="495749"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -3418,13 +3490,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>59055</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>150495</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3434,8 +3506,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3350895" y="6179820"/>
-          <a:ext cx="899160" cy="487680"/>
+          <a:off x="3286349" y="6689015"/>
+          <a:ext cx="883024" cy="495749"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -3559,13 +3631,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3620,13 +3692,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3677,13 +3749,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3738,13 +3810,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3795,13 +3867,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3846,13 +3918,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3897,13 +3969,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3947,13 +4019,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>127762</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4000,14 +4072,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>49531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4018,9 +4090,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1653540" y="6934200"/>
-          <a:ext cx="2994660" cy="7620"/>
+        <a:xfrm>
+          <a:off x="1621267" y="7445413"/>
+          <a:ext cx="2938182" cy="11430"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4051,13 +4123,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4104,13 +4176,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4157,13 +4229,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4219,13 +4291,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4297,13 +4369,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4369,13 +4441,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>59055</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4420,13 +4492,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>112395</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4473,13 +4545,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4489,8 +4561,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5827395" y="5128260"/>
-          <a:ext cx="4086225" cy="1051560"/>
+          <a:off x="5714440" y="5621319"/>
+          <a:ext cx="4005542" cy="1067696"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -5235,13 +5307,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5251,8 +5323,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5835015" y="6431280"/>
-          <a:ext cx="4086225" cy="1051560"/>
+          <a:off x="5722060" y="6945854"/>
+          <a:ext cx="4005542" cy="1067697"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -5997,13 +6069,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6013,8 +6085,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5835015" y="7688580"/>
-          <a:ext cx="4086225" cy="1051560"/>
+          <a:off x="5722060" y="8221980"/>
+          <a:ext cx="4005542" cy="1070386"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -6759,13 +6831,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6813,13 +6885,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6869,13 +6941,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>74295</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6925,13 +6997,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6981,13 +7053,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>58420</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7037,13 +7109,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7090,13 +7162,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7143,13 +7215,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7196,13 +7268,13 @@
     <xdr:from>
       <xdr:col>63</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7212,8 +7284,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8702040" y="3870960"/>
-          <a:ext cx="1181100" cy="1074420"/>
+          <a:off x="8532607" y="4345193"/>
+          <a:ext cx="1156895" cy="1090556"/>
           <a:chOff x="8366760" y="3779520"/>
           <a:chExt cx="1181100" cy="1074420"/>
         </a:xfrm>
@@ -7528,13 +7600,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7595,13 +7667,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7662,13 +7734,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7729,13 +7801,13 @@
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>25432</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7782,13 +7854,13 @@
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>33052</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7835,13 +7907,13 @@
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>33052</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7888,13 +7960,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7953,13 +8025,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8018,13 +8090,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8083,13 +8155,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8148,13 +8220,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8213,13 +8285,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8278,13 +8350,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8343,13 +8415,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8408,13 +8480,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8473,13 +8545,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8538,13 +8610,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8587,6 +8659,4650 @@
             <a:t>CoreDNS</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69924</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="직사각형 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2624865" y="16880542"/>
+          <a:ext cx="4788947" cy="5387787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master Node</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="직사각형 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048001" y="15257930"/>
+          <a:ext cx="3146612" cy="1559858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6498</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="그룹 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1093693" y="16880541"/>
+          <a:ext cx="526452" cy="851647"/>
+          <a:chOff x="1210235" y="16324729"/>
+          <a:chExt cx="526452" cy="851647"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="순서도: 지연 131"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="1284081" y="16750441"/>
+            <a:ext cx="352089" cy="499782"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDelay">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="타원 132"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272315" y="16517918"/>
+            <a:ext cx="388172" cy="371139"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="TextBox 134"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1244525" y="16324729"/>
+            <a:ext cx="492162" cy="216049"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>116540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="136" name="그룹 135"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="860612" y="17803905"/>
+          <a:ext cx="1004046" cy="600635"/>
+          <a:chOff x="3436620" y="4907280"/>
+          <a:chExt cx="914400" cy="460205"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="직사각형 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="4994105"/>
+            <a:ext cx="906780" cy="373380"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>&gt; kubectl</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>create</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> pod(s)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="직사각형 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="4907280"/>
+            <a:ext cx="914400" cy="103031"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500"/>
+              <a:t>・・・</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="직사각형 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2823885" y="17248095"/>
+          <a:ext cx="1523998" cy="1004046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>134467</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>107572</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="육각형 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630702" y="17391529"/>
+          <a:ext cx="645458" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>etcd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134465</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>101572</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="그룹 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2823877" y="17391529"/>
+          <a:ext cx="773930" cy="493059"/>
+          <a:chOff x="2967317" y="17391529"/>
+          <a:chExt cx="773930" cy="493059"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="육각형 157"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3012142" y="17391529"/>
+            <a:ext cx="645458" cy="493059"/>
+          </a:xfrm>
+          <a:prstGeom prst="hexagon">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="TextBox 35"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2967317" y="17517036"/>
+            <a:ext cx="773930" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>API</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Server</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>62751</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="TextBox 158"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3021104" y="17965271"/>
+          <a:ext cx="1165414" cy="259976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Server &amp; etcd</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="직선 연결선 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2832848" y="16701247"/>
+          <a:ext cx="215152" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="직선 연결선 160"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3514165" y="16719176"/>
+          <a:ext cx="1" cy="537883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47788</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="162" name="그룹 161"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3307976" y="15419294"/>
+          <a:ext cx="773930" cy="493059"/>
+          <a:chOff x="2967317" y="17391529"/>
+          <a:chExt cx="773930" cy="493059"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="육각형 162"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3012142" y="17391529"/>
+            <a:ext cx="645458" cy="493059"/>
+          </a:xfrm>
+          <a:prstGeom prst="hexagon">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="TextBox 163"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2967317" y="17517036"/>
+            <a:ext cx="773930" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>API</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Server</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="육각형 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5226425" y="15401365"/>
+          <a:ext cx="645458" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>etcd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="직선 연결선 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3666565" y="15921318"/>
+          <a:ext cx="0" cy="493058"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3603812" y="16037859"/>
+          <a:ext cx="125506" cy="394447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="직선 연결선 165"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5558118" y="15894424"/>
+          <a:ext cx="0" cy="519952"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="직사각형 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495365" y="16037859"/>
+          <a:ext cx="125506" cy="394447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="직선 화살표 연결선 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3702424" y="16279906"/>
+          <a:ext cx="1792942" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="직선 화살표 연결선 167"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3720353" y="16414377"/>
+          <a:ext cx="1792942" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>62752</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="TextBox 168"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3693458" y="15903389"/>
+          <a:ext cx="1721224" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2-1. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>毎度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>) Kluster</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>された情報を記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>62752</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="TextBox 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3693458" y="16405412"/>
+          <a:ext cx="1721224" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2-1. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>毎度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>) API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>サーバに</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>されたことを通知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13746</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="직선 연결선 170"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1358452" y="18404540"/>
+          <a:ext cx="13148" cy="3836895"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="직선 연결선 171"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="18243176"/>
+          <a:ext cx="0" cy="4025153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="직사각형 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3083859" y="18601765"/>
+          <a:ext cx="125506" cy="394447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="직선 화살표 연결선 173"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="173" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1353671" y="18798989"/>
+          <a:ext cx="1730188" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="TextBox 175"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1290918" y="18781059"/>
+          <a:ext cx="1335741" cy="277906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1. Pod(s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Request</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>80676</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>61402</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>134022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="육각형 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4787147" y="17561858"/>
+          <a:ext cx="922020" cy="600188"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t> Manager</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>107571</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>32273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>89642</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>141642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="육각형 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6293218" y="17549308"/>
+          <a:ext cx="923365" cy="620358"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Scheduler</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>17924</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>17924</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="직선 연결선 178"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5262277" y="18162494"/>
+          <a:ext cx="0" cy="4105835"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>35853</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>35853</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="직선 연결선 179"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6759382" y="18162494"/>
+          <a:ext cx="0" cy="4105835"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>107571</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>116536</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="직사각형 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5217453" y="19220331"/>
+          <a:ext cx="143436" cy="259976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>44818</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="직선 화살표 연결선 181"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="181" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3128682" y="19220329"/>
+          <a:ext cx="2160489" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>62752</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="TextBox 182"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3155576" y="18960352"/>
+          <a:ext cx="1335741" cy="277906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-1. Pod(s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の生成監視</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>44818</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="직선 화살표 연결선 183"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="181" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137647" y="19480306"/>
+          <a:ext cx="2151524" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="TextBox 185"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4016189" y="19471341"/>
+          <a:ext cx="1335741" cy="277906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-2. Pod(s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="직사각형 186"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3083859" y="20080942"/>
+          <a:ext cx="116541" cy="251012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>116535</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>98606</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="직사각형 187"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705594" y="20080942"/>
+          <a:ext cx="116541" cy="251012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49306</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>40336</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="직선 화살표 연결선 188"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="0"/>
+          <a:endCxn id="188" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3142130" y="20080942"/>
+          <a:ext cx="3621735" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>40336</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="직선 화살표 연결선 190"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="188" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3146612" y="20322989"/>
+          <a:ext cx="3617253" cy="8965"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="TextBox 193"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3146612" y="19838894"/>
+          <a:ext cx="3532094" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4-1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新しい</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pod(s)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WorkerNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に配布されたか監視</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="TextBox 194"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3146612" y="20322987"/>
+          <a:ext cx="3532094" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4-2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新しい</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pod(s)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WorkerNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に配布するようにスケジューリング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>34064</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="직사각형 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7698888" y="16880542"/>
+          <a:ext cx="4331747" cy="5387787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Worker Node</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>92512</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>109681</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="207" name="그룹 206"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7817224" y="18153529"/>
+          <a:ext cx="881406" cy="495164"/>
+          <a:chOff x="12102353" y="7055224"/>
+          <a:chExt cx="881406" cy="495164"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="208" name="직사각형 207"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12102353" y="7171278"/>
+            <a:ext cx="874061" cy="379110"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Kubelet</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="직사각형 208"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12102353" y="7055224"/>
+            <a:ext cx="881406" cy="131528"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・・・</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>51549</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>109681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="직선 연결선 209"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8254255" y="18648693"/>
+          <a:ext cx="2239" cy="3619636"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="직사각형 212"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8202706" y="20798118"/>
+          <a:ext cx="125506" cy="995082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>35856</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>116538</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="223" name="그룹 222"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10255621" y="17866659"/>
+          <a:ext cx="1694329" cy="1281954"/>
+          <a:chOff x="9314329" y="15015883"/>
+          <a:chExt cx="1694329" cy="1281954"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="216" name="직사각형 215"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9780494" y="15293786"/>
+            <a:ext cx="770965" cy="484095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="217" name="직사각형 216"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9672918" y="15401364"/>
+            <a:ext cx="770965" cy="484095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="직사각형 217"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9529482" y="15526869"/>
+            <a:ext cx="770965" cy="484095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="직사각형 218"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9439834" y="15661339"/>
+            <a:ext cx="770965" cy="484095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="직사각형 213"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9314329" y="15813742"/>
+            <a:ext cx="770965" cy="484095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>Pods(s)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="215" name="육각형 214"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9403976" y="15553764"/>
+            <a:ext cx="564777" cy="403414"/>
+          </a:xfrm>
+          <a:prstGeom prst="hexagon">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>pod</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="224" name="육각형 223"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9484659" y="15024847"/>
+            <a:ext cx="708211" cy="448237"/>
+          </a:xfrm>
+          <a:prstGeom prst="hexagon">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>deploy</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="225" name="육각형 224"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10300447" y="15015883"/>
+            <a:ext cx="708211" cy="448237"/>
+          </a:xfrm>
+          <a:prstGeom prst="hexagon">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>rs</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="직선 연결선 225"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10641104" y="19148613"/>
+          <a:ext cx="0" cy="3110752"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>35863</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>98610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="직사각형 228"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9045392" y="21022234"/>
+          <a:ext cx="753033" cy="546848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Container</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Runtime</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="직선 화살표 연결선 229"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="213" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3146612" y="20798118"/>
+          <a:ext cx="5118847" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="직선 화살표 연결선 232"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="3"/>
+          <a:endCxn id="213" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3200400" y="21793200"/>
+          <a:ext cx="5065059" cy="6"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>125504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="TextBox 235"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4231342" y="20780187"/>
+          <a:ext cx="3532094" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5-1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新しい</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pod(s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WorkerNode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に正しく配布監視</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>116539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="TextBox 236"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4231342" y="21793198"/>
+          <a:ext cx="3532094" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5-2. Pod(s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報を伝送</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>35863</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="직선 화살표 연결선 237"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="213" idx="3"/>
+          <a:endCxn id="229" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8328212" y="21295658"/>
+          <a:ext cx="717180" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>107578</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="직사각형 240"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10587318" y="21165671"/>
+          <a:ext cx="143436" cy="259976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>116543</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="직선 화살표 연결선 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="229" idx="3"/>
+          <a:endCxn id="241" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9798425" y="21295658"/>
+          <a:ext cx="788893" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="TextBox 244"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8301319" y="20932587"/>
+          <a:ext cx="860610" cy="403414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6. Pod(s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>動作管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>8963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="TextBox 247"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9834284" y="20932587"/>
+          <a:ext cx="860610" cy="403414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7. Container</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>62759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>143441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="직사각형 249"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3083859" y="21667700"/>
+          <a:ext cx="116541" cy="251012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>17935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="직선 화살표 연결선 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="250" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362635" y="21793200"/>
+          <a:ext cx="1721224" cy="6"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="TextBox 255"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1290918" y="21838024"/>
+          <a:ext cx="1335741" cy="277906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8. Pod(s) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>使用可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8882,10 +13598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AF79"/>
+  <dimension ref="D2:AF87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="Z78" sqref="Z78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ137" sqref="AJ137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8905,129 +13621,154 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E57" s="2" t="s">
+    <row r="23" spans="4:9" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E60" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E58" s="2" t="s">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J61" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E59" s="2" t="s">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L62" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="L60" t="s">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E62" s="2" t="s">
+    <row r="65" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E65" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I65" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E63" s="2" t="s">
+    <row r="66" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E66" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O66" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="L65" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="67" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E67" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="L67" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E68" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E69" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>167</v>
+      <c r="L68" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E70" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E71" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I73" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="I71" t="s">
+    <row r="74" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
+    <row r="76" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E75" s="2" t="s">
+    <row r="78" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E78" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N78" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="N76" t="s">
+    <row r="79" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="N79" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="Z77" t="s">
+    <row r="80" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="Z80" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E79" s="2" t="s">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E82" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L82" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="L83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="4:12" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="D87" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -9878,6 +14619,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z83:AH83"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
     <mergeCell ref="N83:S83"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:M79"/>
@@ -9890,18 +14643,6 @@
     <mergeCell ref="N80:S80"/>
     <mergeCell ref="N81:S81"/>
     <mergeCell ref="N82:S82"/>
-    <mergeCell ref="Z83:AH83"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z78:AH78"/>
-    <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="Z81:AH81"/>
-    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="command" sheetId="1" r:id="rId2"/>
     <sheet name="command_linux" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="223">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -1848,12 +1848,475 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>StatefulSet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pod, DeploymentはSpec, statusなどの値をもっているが、このような値を持っているPodとDeploymentを</t>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>個別属性を含めた単位を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と言う。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本Object</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Pod：Kubernetesの中で実行される最小単位、つまりWeb Serviceの稼働に必要な最小単位。</t>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１つのPodは１つ以上のContainerを持つ。</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Namespace：Resourceを区別して管理するグループ</t>
+    <rPh sb="20" eb="22">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定なしの場合は「default」、kubernetes systemで使用されるkube-systemなど</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Volume：Podが生成されるときにPodに必要なDirectoryを提供</t>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Service：Pod接続を安定的に維持できるようにServiceを通して内・外部に通信する。</t>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>アンテイテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kubernetesの外部からKubernetes内部に接続するとき、内部がどういった構造になっているか、Podは動いているか気にしなくても</t>
+    <rPh sb="11" eb="13">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理的にKubernetesの内部につなぐのService。</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存インフラで言うと、LoaderBalancer、Gatewayのような役割。</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deployment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能を組み立てたり追加したりしてもっと効率よく稼働できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ownerReferences</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeploymentのObject layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deployment生成監視</t>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReplicaSet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReplicaSet　生成</t>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReplicaSet生成監視</t>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReplicaSetで宣言した</t>
+    <rPh sb="11" eb="13">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pod(s) 生成</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API ServerとControleer Managerの通信</t>
+    <rPh sb="30" eb="32">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Podの数を管理するObject</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※drain解除：kubectl uncordon &lt;node名&gt;</t>
+    <rPh sb="6" eb="8">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部からKubernetes Clusterへ接続する方法</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodePort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのWorkerNodeが特定のPortを開けてそのPortから入ってくるリクエストは全てNodePort serviceに連携し、</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodePort Serviceは該当タスクを処理できるPodにRequestを連携する（再振分け）</t>
+    <rPh sb="17" eb="19">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フリワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodePort Service 構成</t>
+    <rPh sb="17" eb="19">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>targetPort:80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NodePort:30000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>hostIP:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で接続</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←外部からアクセスするPort</t>
+    <rPh sb="1" eb="3">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←NodePortがPodに連携するPort</t>
+    <rPh sb="14" eb="16">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ingress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Portの重複使用は不可。そのため、１つのNodePortに１つのDeploymentだけが適用される</t>
+    <rPh sb="6" eb="8">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,6 +2375,22 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1989,15 +2468,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3372,8 +3853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3288254" y="5397649"/>
-          <a:ext cx="895574" cy="495749"/>
+          <a:off x="3288254" y="7549179"/>
+          <a:ext cx="895574" cy="710901"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -3506,8 +3987,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3286349" y="6689015"/>
-          <a:ext cx="883024" cy="495749"/>
+          <a:off x="3286349" y="9342568"/>
+          <a:ext cx="883024" cy="710901"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -4561,8 +5042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5714440" y="5621319"/>
-          <a:ext cx="4005542" cy="1067696"/>
+          <a:off x="5714440" y="7844566"/>
+          <a:ext cx="4005542" cy="1498002"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -5323,8 +5804,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5722060" y="6945854"/>
-          <a:ext cx="4005542" cy="1067697"/>
+          <a:off x="5722060" y="9742842"/>
+          <a:ext cx="4005542" cy="1498003"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -6085,8 +6566,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5722060" y="8221980"/>
-          <a:ext cx="4005542" cy="1070386"/>
+          <a:off x="5722060" y="11520992"/>
+          <a:ext cx="4005542" cy="1572409"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -7284,8 +7765,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8532607" y="4345193"/>
-          <a:ext cx="1156895" cy="1090556"/>
+          <a:off x="8532607" y="6066416"/>
+          <a:ext cx="1156895" cy="1520863"/>
           <a:chOff x="8366760" y="3779520"/>
           <a:chExt cx="1181100" cy="1074420"/>
         </a:xfrm>
@@ -8825,8 +9306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1093693" y="16880541"/>
-          <a:ext cx="526452" cy="851647"/>
+          <a:off x="1093693" y="23765435"/>
+          <a:ext cx="526452" cy="1210235"/>
           <a:chOff x="1210235" y="16324729"/>
           <a:chExt cx="526452" cy="851647"/>
         </a:xfrm>
@@ -8994,8 +9475,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="860612" y="17803905"/>
-          <a:ext cx="1004046" cy="600635"/>
+          <a:off x="860612" y="25047387"/>
+          <a:ext cx="1004046" cy="887506"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="460205"/>
         </a:xfrm>
@@ -9275,8 +9756,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2823877" y="17391529"/>
-          <a:ext cx="773930" cy="493059"/>
+          <a:off x="2823877" y="24491576"/>
+          <a:ext cx="773930" cy="708212"/>
           <a:chOff x="2967317" y="17391529"/>
           <a:chExt cx="773930" cy="493059"/>
         </a:xfrm>
@@ -9582,8 +10063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3307976" y="15419294"/>
-          <a:ext cx="773930" cy="493059"/>
+          <a:off x="3307976" y="21658729"/>
+          <a:ext cx="773930" cy="708212"/>
           <a:chOff x="2967317" y="17391529"/>
           <a:chExt cx="773930" cy="493059"/>
         </a:xfrm>
@@ -11691,8 +12172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7817224" y="18153529"/>
-          <a:ext cx="881406" cy="495164"/>
+          <a:off x="7817224" y="25540446"/>
+          <a:ext cx="881406" cy="710317"/>
           <a:chOff x="12102353" y="7055224"/>
           <a:chExt cx="881406" cy="495164"/>
         </a:xfrm>
@@ -11948,8 +12429,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10255621" y="17866659"/>
-          <a:ext cx="1694329" cy="1281954"/>
+          <a:off x="10255621" y="25181859"/>
+          <a:ext cx="1694329" cy="1783978"/>
           <a:chOff x="9314329" y="15015883"/>
           <a:chExt cx="1694329" cy="1281954"/>
         </a:xfrm>
@@ -13308,6 +13789,2826 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>233083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="모서리가 둥근 직사각형 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708212" y="36038117"/>
+          <a:ext cx="1712260" cy="502025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Deployment</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="모서리가 둥근 직사각형 198"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708211" y="36827011"/>
+          <a:ext cx="1712260" cy="502025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ReplicaSet</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>旧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ReplicationController)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="모서리가 둥근 직사각형 199"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="860612" y="37355931"/>
+          <a:ext cx="1371600" cy="215151"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>replicas: 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="직사각형 227"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2554941" y="37911741"/>
+          <a:ext cx="869577" cy="448235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POD</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="직사각형 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2554941" y="38709599"/>
+          <a:ext cx="869577" cy="448235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POD</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="꺾인 연결선 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="2"/>
+          <a:endCxn id="228" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1768288" y="37349205"/>
+          <a:ext cx="564777" cy="1008529"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>206187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="꺾인 연결선 204"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="2"/>
+          <a:endCxn id="202" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1369359" y="37748134"/>
+          <a:ext cx="1362635" cy="1008529"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="꺾인 연결선 210"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="228" idx="3"/>
+          <a:endCxn id="199" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2420471" y="37078024"/>
+          <a:ext cx="1004047" cy="1057835"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22768"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>75453</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="꺾인 연결선 211"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="3"/>
+          <a:endCxn id="228" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3424518" y="38135859"/>
+          <a:ext cx="12700" cy="797858"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85165</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>233083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85166</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="직선 화살표 연결선 246"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="227" idx="2"/>
+          <a:endCxn id="199" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1564341" y="36540142"/>
+          <a:ext cx="1" cy="286869"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>119507</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="220" name="그룹 219"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4455459" y="35894682"/>
+          <a:ext cx="773930" cy="708212"/>
+          <a:chOff x="2967317" y="17391529"/>
+          <a:chExt cx="773930" cy="493059"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="221" name="육각형 220"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3012142" y="17391529"/>
+            <a:ext cx="645458" cy="493059"/>
+          </a:xfrm>
+          <a:prstGeom prst="hexagon">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="222" name="TextBox 221"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2967317" y="17517036"/>
+            <a:ext cx="773930" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>API</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Server</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="육각형 254"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6598023" y="35894682"/>
+          <a:ext cx="905435" cy="690282"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0"/>
+            <a:t> Manager</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="직선 연결선 256"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4814047" y="36620824"/>
+          <a:ext cx="0" cy="2528047"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>62750</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>62750</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="직선 연결선 257"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7055221" y="36620824"/>
+          <a:ext cx="0" cy="2528047"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="직사각형 258"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4751294" y="37409718"/>
+          <a:ext cx="116541" cy="322729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="직사각형 259"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4751294" y="38359977"/>
+          <a:ext cx="116541" cy="322729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>125500</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>35861</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="직선 화살표 연결선 260"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4823011" y="37069059"/>
+          <a:ext cx="2160489" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>215154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="직사각형 261"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6983505" y="37069060"/>
+          <a:ext cx="125507" cy="663388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>35862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>215156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="직사각형 262"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6983505" y="38037250"/>
+          <a:ext cx="125507" cy="663388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="직선 화살표 연결선 263"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="259" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4867835" y="37571082"/>
+          <a:ext cx="2097741" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>125500</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>44826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="265" name="직선 화살표 연결선 264"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4823011" y="38046212"/>
+          <a:ext cx="2160489" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="직선 화살표 연결선 265"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4867835" y="38530306"/>
+          <a:ext cx="2097741" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="341" name="그룹 340"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="672352" y="42376166"/>
+          <a:ext cx="5423648" cy="2841811"/>
+          <a:chOff x="1084728" y="41972754"/>
+          <a:chExt cx="5423648" cy="2841811"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="268" name="직사각형 267"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1084728" y="43182987"/>
+            <a:ext cx="5423648" cy="412377"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>NodePort Service</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="269" name="직사각형 268"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1084728" y="43604329"/>
+            <a:ext cx="5423648" cy="1210236"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="270" name="직사각형 269"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1183341" y="44025672"/>
+            <a:ext cx="1721224" cy="708212"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Port(80:30000/TCP)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="271" name="직사각형 270"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2976281" y="44025672"/>
+            <a:ext cx="1712259" cy="708212"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Port(80:30000/TCP)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="272" name="직사각형 271"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4760259" y="44025672"/>
+            <a:ext cx="1676399" cy="708212"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Port(80:30000/TCP)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="273" name="그룹 272"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1264024" y="41972754"/>
+            <a:ext cx="526452" cy="959223"/>
+            <a:chOff x="1210235" y="16324729"/>
+            <a:chExt cx="526452" cy="851647"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="274" name="순서도: 지연 273"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1284081" y="16750441"/>
+              <a:ext cx="352089" cy="499782"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDelay">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="275" name="타원 274"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1272315" y="16517918"/>
+              <a:ext cx="388172" cy="371139"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="276" name="TextBox 275"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1244525" y="16324729"/>
+              <a:ext cx="492162" cy="216049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>User</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="277" name="꺾인 연결선 276"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="274" idx="1"/>
+            <a:endCxn id="78" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="862295" y="43365084"/>
+            <a:ext cx="1084727" cy="218515"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 65703"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="280" name="꺾인 연결선 279"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="274" idx="1"/>
+            <a:endCxn id="289" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="1754283" y="42691610"/>
+            <a:ext cx="1084727" cy="1565462"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 65703"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="283" name="꺾인 연결선 282"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="274" idx="1"/>
+            <a:endCxn id="290" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2650753" y="41795139"/>
+            <a:ext cx="1084727" cy="3358403"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 65703"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="TextBox 75"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1506071" y="42958871"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="288" name="꺾인 연결선 287"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="270" idx="0"/>
+            <a:endCxn id="269" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="2709581" y="42938702"/>
+            <a:ext cx="421343" cy="1752599"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 56383"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="타원 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1201271" y="44016705"/>
+            <a:ext cx="188258" cy="206188"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="289" name="타원 288"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2985248" y="44016705"/>
+            <a:ext cx="188258" cy="206188"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="290" name="타원 289"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4778189" y="44016705"/>
+            <a:ext cx="188258" cy="206188"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="309" name="꺾인 연결선 308"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="271" idx="0"/>
+            <a:endCxn id="269" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="3603811" y="43797071"/>
+            <a:ext cx="421343" cy="35859"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 52128"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="313" name="꺾인 연결선 312"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="272" idx="0"/>
+            <a:endCxn id="269" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="4486835" y="42914047"/>
+            <a:ext cx="421343" cy="1801907"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 54255"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="317" name="TextBox 316"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1748118" y="43747765"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="318" name="직사각형 317"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2357718" y="44375295"/>
+            <a:ext cx="555812" cy="349624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="319" name="직사각형 318"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4114801" y="44375295"/>
+            <a:ext cx="555812" cy="349624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="320" name="직사각형 319"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5880848" y="44375295"/>
+            <a:ext cx="555812" cy="349624"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="321" name="꺾인 연결선 320"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="324" idx="2"/>
+            <a:endCxn id="320" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5219699" y="43436240"/>
+            <a:ext cx="869578" cy="1008531"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 42784"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="324" name="직사각형 323"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4670611" y="43254705"/>
+            <a:ext cx="959224" cy="251012"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③再振分け</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="328" name="꺾인 연결선 327"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="324" idx="2"/>
+            <a:endCxn id="319" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4336676" y="43561748"/>
+            <a:ext cx="869578" cy="757516"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 42784"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="334" name="꺾인 연결선 333"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="324" idx="2"/>
+            <a:endCxn id="318" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3458135" y="42683207"/>
+            <a:ext cx="869578" cy="2514599"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 42784"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13591,62 +16892,89 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AF87"/>
+  <dimension ref="D2:BD190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ137" sqref="AJ137"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="2" style="9"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="2" t="s">
         <v>155</v>
       </c>
@@ -13654,7 +16982,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="2" t="s">
         <v>156</v>
       </c>
@@ -13662,12 +16990,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E65" s="2" t="s">
         <v>157</v>
       </c>
@@ -13675,7 +17003,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E66" s="2" t="s">
         <v>158</v>
       </c>
@@ -13683,7 +17011,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E67" s="2" t="s">
         <v>160</v>
       </c>
@@ -13691,17 +17019,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:32" x14ac:dyDescent="0.25">
       <c r="L68" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E70" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E71" s="2" t="s">
         <v>164</v>
       </c>
@@ -13709,7 +17037,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E72" s="2" t="s">
         <v>166</v>
       </c>
@@ -13717,7 +17045,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E73" s="2" t="s">
         <v>168</v>
       </c>
@@ -13725,17 +17053,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:32" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E78" s="2" t="s">
         <v>172</v>
       </c>
@@ -13743,17 +17071,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:32" x14ac:dyDescent="0.25">
       <c r="N79" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Z80" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E82" s="2" t="s">
         <v>175</v>
       </c>
@@ -13761,14 +17089,196 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L83" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="4:12" ht="19.2" x14ac:dyDescent="0.25">
-      <c r="D87" s="7" t="s">
+    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D87" s="4" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D132" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E136" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D147" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="T153" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="AO156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="AN158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="AN160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AP161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="165" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D165" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D168" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E171" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="K180" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="AV185" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="AV186" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD186" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="R188" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="E190" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -13781,10 +17291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH173"/>
+  <dimension ref="D2:AH176"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU170" sqref="AU170"/>
+    <sheetView showGridLines="0" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -14086,232 +17596,232 @@
       </c>
     </row>
     <row r="78" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5" t="s">
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5" t="s">
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5" t="s">
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
     </row>
     <row r="79" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6" t="s">
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6" t="s">
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6" t="s">
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
     </row>
     <row r="80" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4" t="s">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4" t="s">
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4" t="s">
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
     </row>
     <row r="81" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4" t="s">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4" t="s">
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4" t="s">
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
     </row>
     <row r="82" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4" t="s">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4" t="s">
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4" t="s">
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-      <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
     </row>
     <row r="83" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4" t="s">
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4" t="s">
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4" t="s">
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-      <c r="AG83" s="4"/>
-      <c r="AH83" s="4"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
     </row>
     <row r="85" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
@@ -14382,243 +17892,266 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D102" s="1" t="s">
+    <row r="101" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F101" s="3"/>
+      <c r="G101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D103" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E104" s="2" t="s">
+    <row r="105" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E105" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F105" t="s">
+    <row r="106" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E107" s="2" t="s">
+    <row r="108" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E108" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F109" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="110" spans="4:18" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="F112" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D115" s="1" t="s">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D116" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E117" s="2" t="s">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E118" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F118" t="s">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E120" s="2" t="s">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E121" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F121" t="s">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D124" s="1" t="s">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E126" s="2" t="s">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E127" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F127" s="3" t="s">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F128" t="s">
+    <row r="129" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="P129" t="s">
+    <row r="130" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="P130" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E131" s="2" t="s">
+    <row r="132" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E132" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F132" t="s">
+    <row r="133" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F134" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="135" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F137" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="138" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F138" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E140" s="2" t="s">
+    <row r="141" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E141" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F141" t="s">
+    <row r="142" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G142" t="s">
+    <row r="143" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="144" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F144" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.2">
       <c r="F145" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D148" s="1" t="s">
+    <row r="149" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E150" s="2" t="s">
+    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E151" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F151" t="s">
+    <row r="152" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E153" s="2" t="s">
+    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E154" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F154" t="s">
+    <row r="155" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G155" t="s">
+    <row r="156" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H156" t="s">
+    <row r="157" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E158" s="2" t="s">
+    <row r="159" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E159" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F159" t="s">
+    <row r="160" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D161" s="1" t="s">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D162" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E163" s="2" t="s">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E164" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E166" s="2" t="s">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E167" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F167" t="s">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E169" s="2" t="s">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E170" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F170" t="s">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E172" s="2" t="s">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E173" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F173" t="s">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D176" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="N81:S81"/>
+    <mergeCell ref="N82:S82"/>
     <mergeCell ref="Z83:AH83"/>
     <mergeCell ref="T78:Y78"/>
     <mergeCell ref="T79:Y79"/>
@@ -14631,18 +18164,6 @@
     <mergeCell ref="Z80:AH80"/>
     <mergeCell ref="Z81:AH81"/>
     <mergeCell ref="Z82:AH82"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:S79"/>
-    <mergeCell ref="N80:S80"/>
-    <mergeCell ref="N81:S81"/>
-    <mergeCell ref="N82:S82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="241">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -2311,12 +2311,308 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>複数Deployment、複数NodePortが必要な場合使用</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固有な住所を提供し、使用目的によって異なるResponseが提供できるし、Trafficに対する L4/L7 LoadBalancerと保安証明書を処理機能を提供</t>
+    <rPh sb="0" eb="2">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ホアン</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※IngressするためにはIngressControllerが必要</t>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　IngressControllerは、直接Podと通信できないためNodePortまたはLoadBalancer Serviceと連動する必要がある</t>
+    <rPh sb="20" eb="22">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①UserはNodeごとに設定されたNodePortを通してNodePort serviceにアクセスする。</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②IngressControllerはUserの接続経路に従って適切なClusterIP Serviceで経路を提供する</t>
+    <rPh sb="24" eb="26">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ClusterIP ServiceはUserを対象Podに連携する</t>
+    <rPh sb="24" eb="26">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://hostname:30100/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>http://hostname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ip</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt; 80portのip podへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt; 80portのhname podへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>://hostname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ip</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>://hostname:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt; 443portのhname podへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt; 443portのip podへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pathでどのServiceにつなげるか指定可能</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のportも指定可能</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoadBalancer</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2398,6 +2694,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2474,11 +2777,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -15518,7 +15821,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Worker Node #1</a:t>
+              <a:t>Worker Node #2</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -15592,7 +15895,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Worker Node #1</a:t>
+              <a:t>Worker Node #3</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -16606,6 +16909,2392 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>242046</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="453" name="그룹 452"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="672352" y="48167365"/>
+          <a:ext cx="7763436" cy="4356846"/>
+          <a:chOff x="672352" y="48167365"/>
+          <a:chExt cx="7763436" cy="4356846"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="252" name="직사각형 251"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="672352" y="49252094"/>
+            <a:ext cx="7763436" cy="941295"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>NodePort Service</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="254" name="직사각형 253"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="672352" y="50211318"/>
+            <a:ext cx="7736542" cy="2312893"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="267" name="직사각형 266"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="770965" y="51367764"/>
+            <a:ext cx="2321859" cy="1066799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Port(80:30100/TCP)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Port(443:30101/TCP)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="278" name="직사각형 277"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3334872" y="51367764"/>
+            <a:ext cx="2330824" cy="1066799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Port(80:30000/TCP)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Port(443:30101/TCP)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="279" name="직사각형 278"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5827059" y="51367764"/>
+            <a:ext cx="2312894" cy="1066799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Port(80:30000/TCP)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Port(443:30101/TCP)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="281" name="그룹 280"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="851649" y="48167365"/>
+            <a:ext cx="526452" cy="959223"/>
+            <a:chOff x="1210235" y="16324729"/>
+            <a:chExt cx="526452" cy="851647"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="304" name="순서도: 지연 303"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1284081" y="16750441"/>
+              <a:ext cx="352089" cy="499782"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDelay">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="305" name="타원 304"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1272315" y="16517918"/>
+              <a:ext cx="388172" cy="371139"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="306" name="TextBox 305"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1244525" y="16324729"/>
+              <a:ext cx="492162" cy="216049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>User</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="282" name="꺾인 연결선 281"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="304" idx="1"/>
+            <a:endCxn id="291" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="-123821" y="50133436"/>
+            <a:ext cx="2232209" cy="218515"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 82128"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="284" name="꺾인 연결선 283"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="304" idx="1"/>
+            <a:endCxn id="292" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="1171578" y="49056550"/>
+            <a:ext cx="2250138" cy="2390215"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 80677"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="285" name="꺾인 연결선 284"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="304" idx="1"/>
+            <a:endCxn id="293" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2408709" y="47819420"/>
+            <a:ext cx="2232209" cy="4846546"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 81727"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="286" name="TextBox 285"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1093696" y="49287953"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="287" name="꺾인 연결선 286"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="385" idx="4"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="1454524" y="50630421"/>
+            <a:ext cx="1201272" cy="219631"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 25373"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="291" name="타원 290"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="788896" y="51358798"/>
+            <a:ext cx="188258" cy="206188"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="292" name="타원 291"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3397626" y="51376727"/>
+            <a:ext cx="188258" cy="206188"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="293" name="타원 292"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5853957" y="51358798"/>
+            <a:ext cx="188258" cy="206188"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="294" name="꺾인 연결선 293"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="278" idx="0"/>
+            <a:endCxn id="385" idx="4"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="2718548" y="49586028"/>
+            <a:ext cx="1228164" cy="2335308"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 26642"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="295" name="꺾인 연결선 294"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="279" idx="0"/>
+            <a:endCxn id="385" idx="4"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="3960159" y="48344417"/>
+            <a:ext cx="1228164" cy="4818530"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 27372"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="296" name="TextBox 295"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1649507" y="51089858"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="297" name="직사각형 296"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2079809" y="51609812"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(hname)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="300" name="꺾인 연결선 299"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="371" idx="2"/>
+            <a:endCxn id="406" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5125571" y="48846441"/>
+            <a:ext cx="1102659" cy="4800600"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 41463"/>
+              <a:gd name="adj2" fmla="val 104762"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="302" name="꺾인 연결선 301"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="371" idx="2"/>
+            <a:endCxn id="400" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="3861547" y="50110464"/>
+            <a:ext cx="1102659" cy="2272553"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 41463"/>
+              <a:gd name="adj2" fmla="val 110059"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="303" name="꺾인 연결선 302"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="371" idx="2"/>
+            <a:endCxn id="297" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2597524" y="51118994"/>
+            <a:ext cx="1102659" cy="255494"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="353" name="직사각형 352"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2599765" y="49512071"/>
+            <a:ext cx="1353670" cy="502023"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>hname-svc</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;path: /&gt;</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="354" name="직사각형 353"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4347883" y="49521036"/>
+            <a:ext cx="1353670" cy="502023"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ip-svc</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>&lt;path: /ip&gt;</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="361" name="직사각형 360"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2079809" y="52022188"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(ip)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="371" name="직사각형 370"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2599765" y="50238212"/>
+            <a:ext cx="1353670" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ClusterIP Service</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(hname-svc)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="372" name="직사각형 371"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4347883" y="50238212"/>
+            <a:ext cx="1353670" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ClusterIP Service</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(ip-svc)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="385" name="타원 384"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2070847" y="49933412"/>
+            <a:ext cx="188258" cy="206188"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="400" name="직사각형 399"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4607856" y="51609812"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(hname)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="401" name="직사각형 400"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4607856" y="52022188"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(ip)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="406" name="직사각형 405"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7135903" y="51609812"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(hname)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="407" name="직사각형 406"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7135903" y="52022188"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(ip)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="419" name="꺾인 연결선 418"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="372" idx="2"/>
+            <a:endCxn id="361" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2935941" y="50309929"/>
+            <a:ext cx="1703294" cy="2474260"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 33421"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="429" name="꺾인 연결선 428"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="372" idx="2"/>
+            <a:endCxn id="401" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="4529418" y="51190711"/>
+            <a:ext cx="1515035" cy="524435"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 37278"/>
+              <a:gd name="adj2" fmla="val 131624"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="435" name="꺾인 연결선 434"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="372" idx="2"/>
+            <a:endCxn id="407" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5793442" y="49926688"/>
+            <a:ext cx="1515035" cy="3052482"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 36686"/>
+              <a:gd name="adj2" fmla="val 107489"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="442" name="직선 화살표 연결선 441"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="353" idx="2"/>
+            <a:endCxn id="371" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3276600" y="50014094"/>
+            <a:ext cx="0" cy="224118"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="446" name="직선 화살표 연결선 445"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="354" idx="2"/>
+            <a:endCxn id="372" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5024718" y="50023059"/>
+            <a:ext cx="0" cy="215153"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="449" name="TextBox 448"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3307976" y="50005130"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="450" name="TextBox 449"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5074023" y="50005130"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="451" name="TextBox 450"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3281082" y="50704376"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="452" name="TextBox 451"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5020235" y="50704376"/>
+            <a:ext cx="325730" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -16923,29 +19612,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:BD190"/>
+  <dimension ref="D2:BM220"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CE205" sqref="CE205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="2" style="9"/>
+    <col min="4" max="4" width="2" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -17100,7 +19789,7 @@
       </c>
     </row>
     <row r="132" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -17165,7 +19854,7 @@
       </c>
     </row>
     <row r="147" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17211,7 +19900,7 @@
       </c>
     </row>
     <row r="165" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -17221,7 +19910,7 @@
       </c>
     </row>
     <row r="168" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17279,6 +19968,84 @@
     <row r="190" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E190" s="2" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA201" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB201" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="202" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA202" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO202" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB202" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="209" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="BM209" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="210" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="BM210" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="220" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="E220" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -17596,232 +20363,232 @@
       </c>
     </row>
     <row r="78" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6" t="s">
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6" t="s">
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6" t="s">
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
     </row>
     <row r="79" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7" t="s">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7" t="s">
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="7" t="s">
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AA79" s="7"/>
-      <c r="AB79" s="7"/>
-      <c r="AC79" s="7"/>
-      <c r="AD79" s="7"/>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="7"/>
-      <c r="AG79" s="7"/>
-      <c r="AH79" s="7"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="9"/>
     </row>
     <row r="80" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5" t="s">
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5" t="s">
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5" t="s">
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="5"/>
-      <c r="AH80" s="5"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
     </row>
     <row r="81" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5" t="s">
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5" t="s">
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5" t="s">
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5"/>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
-      <c r="AH81" s="5"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="7"/>
     </row>
     <row r="82" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5" t="s">
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5" t="s">
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5" t="s">
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
     </row>
     <row r="83" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5" t="s">
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5" t="s">
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5" t="s">
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
     </row>
     <row r="85" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
@@ -18140,6 +20907,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z83:AH83"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
     <mergeCell ref="N83:S83"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:M79"/>
@@ -18152,18 +20931,6 @@
     <mergeCell ref="N80:S80"/>
     <mergeCell ref="N81:S81"/>
     <mergeCell ref="N82:S82"/>
-    <mergeCell ref="Z83:AH83"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z78:AH78"/>
-    <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="Z81:AH81"/>
-    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="251">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -2605,6 +2605,136 @@
   </si>
   <si>
     <t>LoadBalancer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負荷分散処理</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MetalLBを使用</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・L2 Network(ArP/NDP)とL3 Network(BGP)でLoadBalancerを実現</t>
+    <rPh sb="50" eb="52">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXT IP: 192.168.1.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXT IP: 192.168.1.12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MetalLB Controllerは動作方式（Protocol)を定義し、EXTERNAL-IPを付与して管理する</t>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MetalLB Speakerは決まった動作方式(L2/ARP, L3/BGP)に従って経路を作れるようにNetwork情報を広告して収集し、各々のPODの経路を提供する</t>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>オノオノ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※L2はSpeakerの中でリーダーを選出し、経路提供を管理する。</t>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負荷によって自動的にPOD数をコントロールする</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPA（Horizontal Pod Autoscaler)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -19298,6 +19428,3781 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="404" name="그룹 403"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="672353" y="54066141"/>
+          <a:ext cx="7763436" cy="4087904"/>
+          <a:chOff x="672353" y="54066141"/>
+          <a:chExt cx="7763436" cy="4087904"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="299" name="직사각형 298"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="672353" y="55303271"/>
+            <a:ext cx="7763436" cy="519954"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="301" name="직사각형 300"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="672353" y="55841152"/>
+            <a:ext cx="7736542" cy="2312893"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="307" name="직사각형 306"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="770966" y="56890024"/>
+            <a:ext cx="2321859" cy="1174374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="308" name="직사각형 307"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3334873" y="56898988"/>
+            <a:ext cx="2330824" cy="1165410"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="310" name="직사각형 309"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5827060" y="56898988"/>
+            <a:ext cx="2312894" cy="1165410"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="311" name="그룹 310"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4186521" y="54066141"/>
+            <a:ext cx="526452" cy="959223"/>
+            <a:chOff x="1210235" y="16324729"/>
+            <a:chExt cx="526452" cy="851647"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="358" name="순서도: 지연 357"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="1284081" y="16750441"/>
+              <a:ext cx="352089" cy="499782"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartDelay">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="359" name="타원 358"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1272315" y="16517918"/>
+              <a:ext cx="388172" cy="371139"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="360" name="TextBox 359"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1244525" y="16324729"/>
+              <a:ext cx="492162" cy="216049"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>User</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="315" name="꺾인 연결선 314"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="358" idx="1"/>
+            <a:endCxn id="362" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="4959166" y="54502611"/>
+            <a:ext cx="331693" cy="1377200"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="329" name="꺾인 연결선 328"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="193" idx="0"/>
+            <a:endCxn id="339" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="611842" y="56085442"/>
+            <a:ext cx="1730187" cy="632011"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="331" name="직사각형 330"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2079810" y="57239646"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(hname)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="332" name="꺾인 연결선 331"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="362" idx="2"/>
+            <a:endCxn id="338" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3355043" y="55381712"/>
+            <a:ext cx="2124634" cy="2792505"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="335" name="꺾인 연결선 334"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="339" idx="2"/>
+            <a:endCxn id="331" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="2212042" y="56524712"/>
+            <a:ext cx="1712258" cy="94128"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="338" name="직사각형 337"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2079810" y="57652022"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(ip)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="339" name="직사각형 338"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1792941" y="55357058"/>
+            <a:ext cx="2644587" cy="358589"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LoadBalancer Service (lb-hname-svc)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="343" name="직사각형 342"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4607857" y="57239646"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(hname)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="344" name="직사각형 343"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4607857" y="57652022"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(ip)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="345" name="직사각형 344"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7135904" y="57239646"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(hname)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="346" name="직사각형 345"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7135904" y="57652022"/>
+            <a:ext cx="941297" cy="376518"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>POD(ip)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="362" name="직사각형 361"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4491318" y="55357058"/>
+            <a:ext cx="2644587" cy="358589"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>LoadBalancer Service (lb-ip-svc)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="왼쪽/오른쪽 화살표 191"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1210235" y="56639011"/>
+            <a:ext cx="1407459" cy="510990"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+              <a:t>MetalLB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0"/>
+              <a:t> Speaker</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="한쪽 모서리가 둥근 사각형 192"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="770965" y="57266540"/>
+            <a:ext cx="779929" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="round1Rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>MetalLB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Controller</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="374" name="왼쪽/오른쪽 화살표 373"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3738282" y="56639011"/>
+            <a:ext cx="1407459" cy="510990"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+              <a:t>MetalLB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0"/>
+              <a:t> Speaker</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="375" name="왼쪽/오른쪽 화살표 374"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6203576" y="56639011"/>
+            <a:ext cx="1407459" cy="510990"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+              <a:t>MetalLB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0"/>
+              <a:t> Speaker</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="378" name="꺾인 연결선 377"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="193" idx="0"/>
+            <a:endCxn id="362" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="3283324" y="53413960"/>
+            <a:ext cx="1730187" cy="5974975"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 61918"/>
+              <a:gd name="adj2" fmla="val 103826"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="381" name="꺾인 연결선 380"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="193" idx="0"/>
+            <a:endCxn id="192" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="1287557" y="56640133"/>
+            <a:ext cx="499781" cy="753035"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 189238"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="384" name="꺾인 연결선 383"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="193" idx="0"/>
+            <a:endCxn id="374" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="2551581" y="55376109"/>
+            <a:ext cx="499781" cy="3281082"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 187444"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="387" name="꺾인 연결선 386"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="193" idx="0"/>
+            <a:endCxn id="375" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="3784228" y="54143462"/>
+            <a:ext cx="499781" cy="5746376"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 187444"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="396" name="꺾인 연결선 395"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="339" idx="2"/>
+            <a:endCxn id="343" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="3476065" y="55354816"/>
+            <a:ext cx="1712258" cy="2433919"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 44503"/>
+              <a:gd name="adj2" fmla="val 109392"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="399" name="꺾인 연결선 398"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="339" idx="2"/>
+            <a:endCxn id="345" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="4740089" y="54090793"/>
+            <a:ext cx="1712258" cy="4961966"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 44503"/>
+              <a:gd name="adj2" fmla="val 104607"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="410" name="꺾인 연결선 409"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="362" idx="2"/>
+            <a:endCxn id="346" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5883089" y="55646169"/>
+            <a:ext cx="2124634" cy="2263589"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector4">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 41351"/>
+              <a:gd name="adj2" fmla="val 112079"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="416" name="꺾인 연결선 415"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="358" idx="1"/>
+            <a:endCxn id="339" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="3609978" y="54530623"/>
+            <a:ext cx="331693" cy="1321177"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>233078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>76972</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="477" name="그룹 476"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="833718" y="60260749"/>
+          <a:ext cx="6370195" cy="4733369"/>
+          <a:chOff x="833718" y="60260749"/>
+          <a:chExt cx="6370195" cy="4733369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="423" name="직사각형 422"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="941294" y="63479082"/>
+            <a:ext cx="1201272" cy="941295"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pod:1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="420" name="직사각형 419"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="833718" y="64384519"/>
+            <a:ext cx="1470210" cy="609599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="424" name="직사각형 423"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1093694" y="63819740"/>
+            <a:ext cx="878541" cy="421343"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pod</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="425" name="직사각형 424"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3039035" y="63479082"/>
+            <a:ext cx="1201272" cy="941295"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pod:1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="426" name="직사각형 425"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3191435" y="63819740"/>
+            <a:ext cx="878541" cy="421343"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pod</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="427" name="직사각형 426"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5163671" y="63479082"/>
+            <a:ext cx="1201272" cy="941295"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pod:1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="428" name="직사각형 427"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5316071" y="63819740"/>
+            <a:ext cx="878541" cy="421343"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Pod</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="421" name="직사각형 420"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2922495" y="64384519"/>
+            <a:ext cx="1470210" cy="609599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="422" name="직사각형 421"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5074025" y="64384519"/>
+            <a:ext cx="1470210" cy="609599"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Worker Node #3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="430" name="그룹 429"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2052920" y="64196261"/>
+            <a:ext cx="672352" cy="439270"/>
+            <a:chOff x="3436620" y="4907280"/>
+            <a:chExt cx="914400" cy="487680"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="431" name="직사각형 430"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="5021580"/>
+              <a:ext cx="906780" cy="373380"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Kubelet</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="432" name="직사각형 431"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="4907280"/>
+              <a:ext cx="914400" cy="129540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・・・</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="433" name="그룹 432"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4186520" y="64196261"/>
+            <a:ext cx="672352" cy="439270"/>
+            <a:chOff x="3436620" y="4907280"/>
+            <a:chExt cx="914400" cy="487680"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="434" name="직사각형 433"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="5021580"/>
+              <a:ext cx="906780" cy="373380"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Kubelet</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="436" name="직사각형 435"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="4907280"/>
+              <a:ext cx="914400" cy="129540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・・・</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="437" name="그룹 436"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6302190" y="64196261"/>
+            <a:ext cx="672352" cy="439270"/>
+            <a:chOff x="3436620" y="4907280"/>
+            <a:chExt cx="914400" cy="487680"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="438" name="직사각형 437"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="5021580"/>
+              <a:ext cx="906780" cy="373380"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Kubelet</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="439" name="직사각형 438"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3436620" y="4907280"/>
+              <a:ext cx="914400" cy="129540"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・・・</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="459" name="그룹 458"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="932329" y="61802682"/>
+            <a:ext cx="1201272" cy="1183341"/>
+            <a:chOff x="941294" y="61560635"/>
+            <a:chExt cx="1201272" cy="1183341"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="440" name="직사각형 439"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="941294" y="61802682"/>
+              <a:ext cx="1201272" cy="941294"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Deployment</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="405" name="모서리가 둥근 직사각형 404"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1057835" y="62116447"/>
+              <a:ext cx="959224" cy="242047"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>ReplicaSet</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="441" name="모서리가 둥근 직사각형 440"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1102659" y="62394353"/>
+              <a:ext cx="860612" cy="224117"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>replicas:1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="443" name="모서리가 둥근 직사각형 442"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1102659" y="61560635"/>
+              <a:ext cx="860612" cy="224117"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>scale</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="444" name="모서리가 둥근 직사각형 443"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="851645" y="60260749"/>
+            <a:ext cx="1335741" cy="735106"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>scaleHorizontal Pod Autoscaler</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="409" name="한쪽 모서리는 잘리고 다른 쪽 모서리는 둥근 사각형 408"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3146612" y="60395224"/>
+            <a:ext cx="959223" cy="466164"/>
+          </a:xfrm>
+          <a:prstGeom prst="snipRoundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>API</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> Server</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="445" name="모서리가 둥근 직사각형 444"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5190565" y="60278681"/>
+            <a:ext cx="1156448" cy="699249"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Metrics-Server</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-Deployment</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-replicas:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="447" name="꺾인 연결선 446"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="432" idx="0"/>
+            <a:endCxn id="445" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="2469776" y="60897250"/>
+            <a:ext cx="3218331" cy="3379693"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="448" name="꺾인 연결선 447"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="436" idx="0"/>
+            <a:endCxn id="445" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="3536576" y="61964050"/>
+            <a:ext cx="3218331" cy="1246093"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="454" name="꺾인 연결선 453"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="439" idx="0"/>
+            <a:endCxn id="445" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipV="1">
+            <a:off x="4594412" y="62152307"/>
+            <a:ext cx="3218331" cy="869577"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="455" name="꺾인 연결선 454"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="440" idx="2"/>
+            <a:endCxn id="423" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="1290918" y="63228069"/>
+            <a:ext cx="493059" cy="8965"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="460" name="꺾인 연결선 459"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="440" idx="2"/>
+            <a:endCxn id="425" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="2339789" y="62179199"/>
+            <a:ext cx="493059" cy="2106706"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="463" name="꺾인 연결선 462"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="440" idx="2"/>
+            <a:endCxn id="427" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="3402107" y="61116881"/>
+            <a:ext cx="493059" cy="4231342"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="467" name="직선 화살표 연결선 466"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="445" idx="1"/>
+            <a:endCxn id="409" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4105835" y="60628306"/>
+            <a:ext cx="1084730" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="468" name="직선 화살표 연결선 467"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="409" idx="2"/>
+            <a:endCxn id="444" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2187386" y="60628302"/>
+            <a:ext cx="959226" cy="4"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="471" name="직선 화살표 연결선 470"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="444" idx="2"/>
+            <a:endCxn id="443" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1519516" y="60995855"/>
+            <a:ext cx="4484" cy="806827"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="474" name="TextBox 473"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1524001" y="61273765"/>
+            <a:ext cx="1658018" cy="442429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+              <a:t>資源がもっと必要な場合、</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+              <a:t>scale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+              <a:t>を要請</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="475" name="TextBox 474"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2581835" y="60870354"/>
+            <a:ext cx="2138021" cy="442429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+              <a:t>Pod</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+              <a:t>たちに対数計測値を受け取り、</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+              <a:t>連携する</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="476" name="TextBox 475"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5835205" y="62107482"/>
+            <a:ext cx="1368708" cy="442429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+              <a:t>計測値を収集し、</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+              <a:t>Metrics-Server</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+              <a:t>に送る</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19612,10 +23517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:BM220"/>
+  <dimension ref="D2:BM247"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CE205" sqref="CE205"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD257" sqref="BD257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
@@ -20046,6 +23951,54 @@
     <row r="220" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E220" s="2" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="223" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R228" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E246" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -20060,7 +24013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AH176"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
@@ -20907,6 +24860,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:S79"/>
+    <mergeCell ref="N80:S80"/>
+    <mergeCell ref="N81:S81"/>
+    <mergeCell ref="N82:S82"/>
     <mergeCell ref="Z83:AH83"/>
     <mergeCell ref="T78:Y78"/>
     <mergeCell ref="T79:Y79"/>
@@ -20919,18 +24884,6 @@
     <mergeCell ref="Z80:AH80"/>
     <mergeCell ref="Z81:AH81"/>
     <mergeCell ref="Z82:AH82"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:S79"/>
-    <mergeCell ref="N80:S80"/>
-    <mergeCell ref="N81:S81"/>
-    <mergeCell ref="N82:S82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="270">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -2735,6 +2735,252 @@
   </si>
   <si>
     <t>HPA（Horizontal Pod Autoscaler)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DaemonSet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeploymentのreplicasがNode数だけ決まっている形で、Node１つにつき１つだけのPodを生成する</t>
+    <rPh sb="24" eb="25">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例）Calico Network plugin、kube-proxy、MetalLb speaker</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Nodeの単一接続するところで、Nodeの外部と通信する。</t>
+    <rPh sb="6" eb="8">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-&gt; １つ以上のPodは要らない。１つだけで良い。</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConfigMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定（Conifg)を目的に使用するObject</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※環境変数的なもの</t>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PVC, PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Claim(要求する)という意味の通り、作成された PV リソースからアサインするためのリソース。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV はクラスタにボリュームを登録するだけなので Pod から利用する場合には PVC を定義する必要がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PersistentVolume, 永続化領域として確保される Volume）</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>エイゾク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PVC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（PersistentVolumeClaim）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※PVで生成可能なVolume Type</t>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Elastic Block Store, HostPath, NFS, iSCSIなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatefulSet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前の状態を記憶するセット</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キオク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各Podが順に生成されるため、固定の名前、Volume、設定などを待つことができる。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、効率面で良い構造ではないため、要求条件に合わせて適切に利用することが大事。</t>
+    <rPh sb="4" eb="6">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヨウキュウジョウケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ダイジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2901,7 +3147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2912,6 +3158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -14226,13 +14473,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>215152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>233083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14306,13 +14553,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14417,13 +14664,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14497,13 +14744,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14575,13 +14822,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>188258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14653,13 +14900,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>53787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14708,13 +14955,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>53787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>206187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14764,13 +15011,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14816,13 +15063,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>75453</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>206188</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14869,13 +15116,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85165</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>233083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85166</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14919,13 +15166,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>119507</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -14935,7 +15182,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4455459" y="35894682"/>
+          <a:off x="4455459" y="44608376"/>
           <a:ext cx="773930" cy="708212"/>
           <a:chOff x="2967317" y="17391529"/>
           <a:chExt cx="773930" cy="493059"/>
@@ -15058,13 +15305,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15132,13 +15379,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15184,13 +15431,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>62750</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>62750</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15236,13 +15483,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15298,13 +15545,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15360,13 +15607,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>116540</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125500</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>35861</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15407,13 +15654,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125505</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>35860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>215154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15469,13 +15716,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125505</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>35862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>215156</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15531,13 +15778,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15580,13 +15827,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>116540</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125500</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>44826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15627,13 +15874,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15674,13 +15921,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>17931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15690,7 +15937,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="672352" y="42376166"/>
+          <a:off x="672352" y="51089860"/>
           <a:ext cx="5423648" cy="2841811"/>
           <a:chOff x="1084728" y="41972754"/>
           <a:chExt cx="5423648" cy="2841811"/>
@@ -17046,13 +17293,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>242046</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -17062,7 +17309,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="672352" y="48167365"/>
+          <a:off x="672352" y="56881059"/>
           <a:ext cx="7763436" cy="4356846"/>
           <a:chOff x="672352" y="48167365"/>
           <a:chExt cx="7763436" cy="4356846"/>
@@ -19432,13 +19679,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>98613</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>62751</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19448,7 +19695,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="672353" y="54066141"/>
+          <a:off x="672353" y="62779835"/>
           <a:ext cx="7763436" cy="4087904"/>
           <a:chOff x="672353" y="54066141"/>
           <a:chExt cx="7763436" cy="4087904"/>
@@ -21257,13 +21504,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>233078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>76972</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -21273,7 +21520,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="833718" y="60260749"/>
+          <a:off x="833718" y="68974443"/>
           <a:ext cx="6370195" cy="4733369"/>
           <a:chOff x="833718" y="60260749"/>
           <a:chExt cx="6370195" cy="4733369"/>
@@ -23203,6 +23450,2170 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>233083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="직사각형 366"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="932330" y="39866046"/>
+          <a:ext cx="1999129" cy="2725272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>管理者担当</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="368" name="그룹 367"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1048871" y="40099131"/>
+          <a:ext cx="555811" cy="744070"/>
+          <a:chOff x="1210235" y="16324729"/>
+          <a:chExt cx="526452" cy="851647"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="369" name="순서도: 지연 368"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="1284081" y="16750441"/>
+            <a:ext cx="352089" cy="499782"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDelay">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="370" name="타원 369"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272315" y="16517918"/>
+            <a:ext cx="388172" cy="371139"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="373" name="TextBox 372"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1244525" y="16324729"/>
+            <a:ext cx="492162" cy="216049"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="그룹 57"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2017060" y="40610117"/>
+          <a:ext cx="699246" cy="842684"/>
+          <a:chOff x="2456330" y="40959740"/>
+          <a:chExt cx="872098" cy="1107243"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="순서도: 직접 액세스 저장소 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2519082" y="41587271"/>
+            <a:ext cx="797859" cy="179294"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDrum">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="순서도: 자기 디스크 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2788024" y="41210754"/>
+            <a:ext cx="170329" cy="475130"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="정육면체 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2537012" y="40959740"/>
+            <a:ext cx="690282" cy="403412"/>
+          </a:xfrm>
+          <a:prstGeom prst="cube">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>NFS</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="TextBox 45"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2456330" y="41802423"/>
+            <a:ext cx="872098" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>/nfs_shared</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>125504</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>71714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>116538</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="그룹 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2142563" y="41945855"/>
+          <a:ext cx="546848" cy="286871"/>
+          <a:chOff x="2483223" y="42537529"/>
+          <a:chExt cx="654424" cy="430306"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="순서도: 처리 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2483223" y="42618212"/>
+            <a:ext cx="537883" cy="349623"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="순서도: 데이터 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2497381" y="42716824"/>
+            <a:ext cx="640266" cy="251011"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="379" name="순서도: 처리 378"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2483223" y="42537529"/>
+            <a:ext cx="268941" cy="89648"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102462</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>204127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="꺾인 연결선 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="369" idx="1"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1410415" y="40987529"/>
+          <a:ext cx="508927" cy="704363"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8968</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>206190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56367</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>32867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="386" name="꺾인 연결선 385"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1074070" y="41257276"/>
+          <a:ext cx="1278959" cy="988693"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619721" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1389530" y="42089293"/>
+          <a:ext cx="619721" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627529" cy="425758"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="TextBox 388"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1398495" y="41201787"/>
+          <a:ext cx="627529" cy="425758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>NFS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>生成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627529" cy="248851"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="TextBox 389"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420473" y="41901034"/>
+          <a:ext cx="627529" cy="248851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>PV</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81295</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>101597</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="직선 화살표 연결선 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="379" idx="3"/>
+          <a:endCxn id="46" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2366683" y="41694848"/>
+          <a:ext cx="612" cy="522937"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>233083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="직사각형 407"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460377" y="39866046"/>
+          <a:ext cx="2994211" cy="2725272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ（開発者）担当</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>173527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>80681</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="직사각형 410"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3801034" y="40353339"/>
+          <a:ext cx="851647" cy="902237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Pods(s)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>21127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="413" name="직사각형 412"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3711388" y="40442986"/>
+          <a:ext cx="851647" cy="902237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Pods(s)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>128704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="직사각형 413"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3621741" y="40550563"/>
+          <a:ext cx="851647" cy="902237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Pods(s)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>116543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="순서도: 자기 디스크 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3890682" y="40780449"/>
+          <a:ext cx="546847" cy="394446"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>Volume</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>107579</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627529" cy="248851"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="TextBox 414"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3872755" y="41183857"/>
+          <a:ext cx="627529" cy="248851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/audit</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>71714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>26893</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>116538</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="417" name="그룹 416"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3783104" y="41945855"/>
+          <a:ext cx="546848" cy="286871"/>
+          <a:chOff x="2483223" y="42537529"/>
+          <a:chExt cx="654424" cy="430306"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="418" name="순서도: 처리 417"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2483223" y="42618212"/>
+            <a:ext cx="537883" cy="349623"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="456" name="순서도: 데이터 455"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2497381" y="42716824"/>
+            <a:ext cx="640266" cy="251011"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartInputOutput">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="457" name="순서도: 처리 456"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2483223" y="42537529"/>
+            <a:ext cx="268941" cy="89648"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartProcess">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>125508</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>170327</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627529" cy="248851"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="458" name="TextBox 457"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3756214" y="41560374"/>
+          <a:ext cx="627529" cy="248851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>PVC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="461" name="직선 화살표 연결선 460"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168588" y="41515553"/>
+          <a:ext cx="0" cy="367553"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53791</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>107574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627529" cy="405367"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="TextBox 461"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070850" y="42223762"/>
+          <a:ext cx="627529" cy="405367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>nfs-pv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>&lt;100M&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>107574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="627529" cy="405367"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="464" name="TextBox 463"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3720355" y="42223762"/>
+          <a:ext cx="627529" cy="405367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>nfs-pv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>&lt;100M&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>35855</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>116540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>53784</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="465" name="그룹 464"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5683620" y="40054305"/>
+          <a:ext cx="555811" cy="744070"/>
+          <a:chOff x="1210235" y="16324729"/>
+          <a:chExt cx="526452" cy="851647"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="466" name="순서도: 지연 465"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="1284081" y="16750441"/>
+            <a:ext cx="352089" cy="499782"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartDelay">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="469" name="타원 468"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1272315" y="16517918"/>
+            <a:ext cx="388172" cy="371139"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="470" name="TextBox 469"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1244525" y="16324729"/>
+            <a:ext cx="492162" cy="216049"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>開発者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>107575</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>233082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="472" name="그룹 471"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5486399" y="40896988"/>
+          <a:ext cx="923365" cy="528918"/>
+          <a:chOff x="3436620" y="4907280"/>
+          <a:chExt cx="914400" cy="460205"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="473" name="직사각형 472"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="4994105"/>
+            <a:ext cx="906780" cy="373380"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>&gt; kubectl</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>create</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+              <a:t> deploy</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="478" name="직사각형 477"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3436620" y="4907280"/>
+            <a:ext cx="914400" cy="103031"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500"/>
+              <a:t>・・・</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="479" name="직선 화살표 연결선 478"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4805083" y="40950777"/>
+          <a:ext cx="555811" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="480" name="직선 화살표 연결선 479"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2779060" y="42143081"/>
+          <a:ext cx="851646" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71720</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>46291</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="995079" cy="248851"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="481" name="TextBox 480"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2761132" y="42162479"/>
+          <a:ext cx="995079" cy="248851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>Bind</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> -&gt; Bound</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23517,11 +25928,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:BM247"/>
+  <dimension ref="D2:BM283"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BD257" sqref="BD257"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23753,251 +26162,346 @@
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="D147" s="6" t="s">
+    <row r="147" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="148" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="150" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E153" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="155" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="157" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E157" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="158" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F158" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="159" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F159" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="160" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="178" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="E178" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="181" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="183" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D183" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="148" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
+    <row r="184" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="T153" t="s">
+    <row r="189" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="T189" t="s">
         <v>199</v>
       </c>
-      <c r="AN153" t="s">
+      <c r="AN189" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="AO156" t="s">
+    <row r="192" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="AO192" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="AN158" t="s">
+    <row r="194" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AN194" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="AN160" t="s">
+    <row r="196" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AN196" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AP161" t="s">
+    <row r="197" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AP197" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="163" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="I163" t="s">
+    <row r="199" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
         <v>200</v>
       </c>
-      <c r="AJ163" t="s">
+      <c r="AJ199" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D165" s="6" t="s">
+    <row r="201" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D201" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
+    <row r="202" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="168" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D168" s="6" t="s">
+    <row r="204" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D204" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E169" t="s">
+    <row r="205" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="171" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E171" s="2" t="s">
+    <row r="207" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E207" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F172" t="s">
+    <row r="208" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F173" t="s">
+    <row r="209" spans="6:56" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="174" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F174" t="s">
+    <row r="210" spans="6:56" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="5:56" x14ac:dyDescent="0.25">
-      <c r="K180" t="s">
+    <row r="216" spans="6:56" x14ac:dyDescent="0.25">
+      <c r="K216" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="185" spans="5:56" x14ac:dyDescent="0.25">
-      <c r="AV185" t="s">
+    <row r="221" spans="6:56" x14ac:dyDescent="0.25">
+      <c r="AV221" t="s">
         <v>216</v>
       </c>
-      <c r="BD185" t="s">
+      <c r="BD221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="5:56" x14ac:dyDescent="0.25">
-      <c r="AV186" t="s">
+    <row r="222" spans="6:56" x14ac:dyDescent="0.25">
+      <c r="AV222" t="s">
         <v>217</v>
       </c>
-      <c r="BD186" t="s">
+      <c r="BD222" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="5:56" x14ac:dyDescent="0.25">
-      <c r="R188" t="s">
+    <row r="224" spans="6:56" x14ac:dyDescent="0.25">
+      <c r="R224" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="5:56" x14ac:dyDescent="0.25">
-      <c r="E190" s="2" t="s">
+    <row r="226" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="E226" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="5:56" x14ac:dyDescent="0.25">
-      <c r="F191" t="s">
+    <row r="227" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="192" spans="5:56" x14ac:dyDescent="0.25">
-      <c r="F192" t="s">
+    <row r="228" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="193" spans="6:54" x14ac:dyDescent="0.25">
-      <c r="F193" t="s">
+    <row r="229" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="6:54" x14ac:dyDescent="0.25">
-      <c r="F194" t="s">
+    <row r="230" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="6:54" x14ac:dyDescent="0.25">
-      <c r="F196" t="s">
+    <row r="232" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="F232" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="6:54" x14ac:dyDescent="0.25">
-      <c r="F197" t="s">
+    <row r="233" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="F233" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="6:54" x14ac:dyDescent="0.25">
-      <c r="F198" t="s">
+    <row r="234" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="F234" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="201" spans="6:54" x14ac:dyDescent="0.25">
-      <c r="N201" t="s">
+    <row r="237" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="N237" t="s">
         <v>230</v>
       </c>
-      <c r="AA201" s="3" t="s">
+      <c r="AA237" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AO201" t="s">
+      <c r="AO237" t="s">
         <v>235</v>
       </c>
-      <c r="BB201" s="3" t="s">
+      <c r="BB237" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="202" spans="6:54" x14ac:dyDescent="0.25">
-      <c r="N202" t="s">
+    <row r="238" spans="5:54" x14ac:dyDescent="0.25">
+      <c r="N238" t="s">
         <v>231</v>
       </c>
-      <c r="AA202" s="3" t="s">
+      <c r="AA238" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AO202" t="s">
+      <c r="AO238" t="s">
         <v>234</v>
       </c>
-      <c r="BB202" s="3" t="s">
+      <c r="BB238" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="BM209" t="s">
+    <row r="245" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="BM245" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="210" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="BM210" t="s">
+    <row r="246" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="BM246" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="220" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="E220" s="2" t="s">
+    <row r="256" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="E256" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="221" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="F221" t="s">
+    <row r="257" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="F257" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="222" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="F222" t="s">
+    <row r="258" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="F258" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="G223" t="s">
+    <row r="259" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="G259" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="228" spans="18:40" x14ac:dyDescent="0.25">
-      <c r="R228" t="s">
+    <row r="264" spans="6:40" x14ac:dyDescent="0.25">
+      <c r="R264" t="s">
         <v>244</v>
       </c>
-      <c r="AN228" t="s">
+      <c r="AN264" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F242" t="s">
+    <row r="278" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F278" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="243" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F243" t="s">
+    <row r="279" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F279" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="244" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G244" t="s">
+    <row r="280" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G280" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E246" s="2" t="s">
+    <row r="282" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E282" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F247" t="s">
+    <row r="283" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F283" t="s">
         <v>249</v>
       </c>
     </row>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -1835,10 +1835,6 @@
     <rPh sb="32" eb="34">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PodのLife cycle</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2981,6 +2977,10 @@
     <rPh sb="38" eb="40">
       <t>ダイジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PodのLife cycle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3155,10 +3155,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3188,14 +3188,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>144779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3204,8 +3204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="3863340"/>
-          <a:ext cx="1508760" cy="1143000"/>
+          <a:off x="1334589" y="6629399"/>
+          <a:ext cx="1556657" cy="939437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4533,8 +4533,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3288254" y="7549179"/>
-          <a:ext cx="895574" cy="710901"/>
+          <a:off x="3457303" y="7469777"/>
+          <a:ext cx="944880" cy="703217"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -4667,8 +4667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3286349" y="9342568"/>
-          <a:ext cx="883024" cy="710901"/>
+          <a:off x="3455398" y="9245237"/>
+          <a:ext cx="925286" cy="703217"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="487680"/>
         </a:xfrm>
@@ -4790,16 +4790,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8169</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>25044</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>62049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4808,8 +4808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="1472565" y="4364355"/>
-          <a:ext cx="499110" cy="510540"/>
+          <a:off x="1594656" y="7074518"/>
+          <a:ext cx="381758" cy="441418"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -4853,14 +4853,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4869,8 +4869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1531620" y="4069080"/>
-          <a:ext cx="396240" cy="365760"/>
+          <a:off x="1579517" y="6923315"/>
+          <a:ext cx="409303" cy="272144"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4908,16 +4908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15787</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:colOff>32662</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>62049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4926,8 +4926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2165985" y="4364355"/>
-          <a:ext cx="499110" cy="510540"/>
+          <a:off x="2309847" y="7074519"/>
+          <a:ext cx="381756" cy="441417"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDelay">
           <a:avLst/>
@@ -4971,14 +4971,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4987,8 +4987,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2225040" y="4069080"/>
-          <a:ext cx="396240" cy="365760"/>
+          <a:off x="2294709" y="6923315"/>
+          <a:ext cx="409302" cy="272144"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5028,12 +5028,12 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>108857</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -5047,8 +5047,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2804160" y="4434840"/>
-          <a:ext cx="1005840" cy="472440"/>
+          <a:off x="2891246" y="7099118"/>
+          <a:ext cx="1038497" cy="370659"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5079,8 +5079,8 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
@@ -5098,8 +5098,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2804160" y="4434840"/>
-          <a:ext cx="1939290" cy="624840"/>
+          <a:off x="2891246" y="7099118"/>
+          <a:ext cx="2000250" cy="594905"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5722,8 +5722,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5714440" y="7844566"/>
-          <a:ext cx="4005542" cy="1498002"/>
+          <a:off x="6010275" y="7762603"/>
+          <a:ext cx="4216854" cy="1482634"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -6484,8 +6484,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5722060" y="9742842"/>
-          <a:ext cx="4005542" cy="1498003"/>
+          <a:off x="6017895" y="9640389"/>
+          <a:ext cx="4216854" cy="1482634"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -7246,8 +7246,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5722060" y="11520992"/>
-          <a:ext cx="4005542" cy="1572409"/>
+          <a:off x="6017895" y="11400609"/>
+          <a:ext cx="4216854" cy="1554480"/>
           <a:chOff x="5827395" y="4983480"/>
           <a:chExt cx="4086225" cy="1051560"/>
         </a:xfrm>
@@ -8429,14 +8429,14 @@
     <xdr:from>
       <xdr:col>63</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>214446</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8445,10 +8445,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8532607" y="6066416"/>
-          <a:ext cx="1156895" cy="1520863"/>
-          <a:chOff x="8366760" y="3779520"/>
-          <a:chExt cx="1181100" cy="1074420"/>
+          <a:off x="8976360" y="6520541"/>
+          <a:ext cx="1220289" cy="1117962"/>
+          <a:chOff x="8366760" y="4056088"/>
+          <a:chExt cx="1181100" cy="797852"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -8458,8 +8458,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8366760" y="3779520"/>
-            <a:ext cx="1181100" cy="1074420"/>
+            <a:off x="8366760" y="4056088"/>
+            <a:ext cx="1181100" cy="797852"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8497,8 +8497,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="9022080" y="4191000"/>
-            <a:ext cx="339090" cy="377190"/>
+            <a:off x="9080467" y="4281018"/>
+            <a:ext cx="252837" cy="407710"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDelay">
             <a:avLst/>
@@ -8543,8 +8543,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9044940" y="3992880"/>
-            <a:ext cx="292744" cy="248493"/>
+            <a:off x="9044940" y="4211466"/>
+            <a:ext cx="316430" cy="185285"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
@@ -8585,8 +8585,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="8534400" y="4191000"/>
-            <a:ext cx="339090" cy="377190"/>
+            <a:off x="8592787" y="4281018"/>
+            <a:ext cx="252837" cy="407710"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDelay">
             <a:avLst/>
@@ -8631,8 +8631,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8557260" y="3992880"/>
-            <a:ext cx="292744" cy="248493"/>
+            <a:off x="8557260" y="4211466"/>
+            <a:ext cx="316430" cy="185285"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
@@ -8673,8 +8673,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="8778240" y="4396740"/>
-            <a:ext cx="339090" cy="377190"/>
+            <a:off x="8836626" y="4486758"/>
+            <a:ext cx="252837" cy="407710"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartDelay">
             <a:avLst/>
@@ -8719,8 +8719,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8801100" y="4198620"/>
-            <a:ext cx="292744" cy="248493"/>
+            <a:off x="8801100" y="4417206"/>
+            <a:ext cx="316430" cy="185285"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
             <a:avLst/>
@@ -8761,14 +8761,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>207918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8777,8 +8777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1501140" y="3878580"/>
-          <a:ext cx="502920" cy="213360"/>
+          <a:off x="1544683" y="6674032"/>
+          <a:ext cx="520337" cy="285206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8828,14 +8828,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>207918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8844,8 +8844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2186940" y="3878580"/>
-          <a:ext cx="502920" cy="213360"/>
+          <a:off x="2252254" y="6674032"/>
+          <a:ext cx="520337" cy="285206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8895,14 +8895,14 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8911,8 +8911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9060180" y="3878580"/>
-          <a:ext cx="502920" cy="213360"/>
+          <a:off x="9347563" y="6532519"/>
+          <a:ext cx="515983" cy="285206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8962,14 +8962,14 @@
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>25432</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>25027</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>233357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8981,12 +8981,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9883140" y="4408170"/>
-          <a:ext cx="17812" cy="815340"/>
+          <a:off x="10196649" y="7079522"/>
+          <a:ext cx="17407" cy="817378"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1383404"/>
+            <a:gd name="adj1" fmla="val 1413265"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9015,14 +9015,14 @@
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>33052</xdr:colOff>
+      <xdr:colOff>32647</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>195257</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9034,12 +9034,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9883140" y="4408170"/>
-          <a:ext cx="25432" cy="2118360"/>
+          <a:off x="10196649" y="7079522"/>
+          <a:ext cx="25027" cy="2695164"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 998868"/>
+            <a:gd name="adj1" fmla="val 1013414"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9068,14 +9068,14 @@
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>33052</xdr:colOff>
+      <xdr:colOff>32647</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>46100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9087,12 +9087,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9883140" y="4408170"/>
-          <a:ext cx="25432" cy="3375660"/>
+          <a:off x="10196649" y="7079522"/>
+          <a:ext cx="25027" cy="4461892"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 998868"/>
+            <a:gd name="adj1" fmla="val 1013414"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9829,13 +9829,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>69924</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9909,7 +9909,7 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9970,13 +9970,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>6498</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9986,8 +9986,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1093693" y="23765435"/>
-          <a:ext cx="526452" cy="1210235"/>
+          <a:off x="1150042" y="23274937"/>
+          <a:ext cx="554627" cy="1197429"/>
           <a:chOff x="1210235" y="16324729"/>
           <a:chExt cx="526452" cy="851647"/>
         </a:xfrm>
@@ -10139,13 +10139,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>116540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>116540</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10155,8 +10155,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="860612" y="25047387"/>
-          <a:ext cx="1004046" cy="887506"/>
+          <a:off x="902874" y="24544083"/>
+          <a:ext cx="1053352" cy="877261"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="460205"/>
         </a:xfrm>
@@ -10284,13 +10284,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>3</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10351,13 +10351,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>134467</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>107572</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10420,13 +10420,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>134465</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>101572</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10436,8 +10436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2823877" y="24491576"/>
-          <a:ext cx="773930" cy="708212"/>
+          <a:off x="2964751" y="23993394"/>
+          <a:ext cx="816192" cy="700529"/>
           <a:chOff x="2967317" y="17391529"/>
           <a:chExt cx="773930" cy="493059"/>
         </a:xfrm>
@@ -10559,13 +10559,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>62751</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10633,13 +10633,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10680,13 +10680,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>17931</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10733,7 +10733,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>47788</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10743,8 +10743,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3307976" y="21658729"/>
-          <a:ext cx="773930" cy="708212"/>
+          <a:off x="3477025" y="21430770"/>
+          <a:ext cx="816192" cy="461042"/>
           <a:chOff x="2967317" y="17391529"/>
           <a:chExt cx="773930" cy="493059"/>
         </a:xfrm>
@@ -10872,7 +10872,7 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10935,13 +10935,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10986,13 +10986,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11048,13 +11048,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11099,13 +11099,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11161,13 +11161,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>125507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11208,13 +11208,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>89649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11256,13 +11256,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>62752</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11366,13 +11366,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>62752</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>143436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11476,13 +11476,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>13746</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11530,13 +11530,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11581,13 +11581,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11643,13 +11643,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11692,13 +11692,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11775,13 +11775,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>80676</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>61402</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>134022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11849,13 +11849,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>107571</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>32273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>89642</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>141642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11918,13 +11918,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>17924</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>17924</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11969,13 +11969,13 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>35853</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>35853</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12020,13 +12020,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>107571</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>116536</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12082,13 +12082,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>44818</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12131,13 +12131,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>62752</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>80681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12201,13 +12201,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>44818</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12251,14 +12251,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12321,13 +12321,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>8966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12383,13 +12383,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>116535</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>8966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>98606</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12445,13 +12445,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>49306</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>8966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>40336</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>8966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12495,13 +12495,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>40336</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12545,13 +12545,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12660,14 +12660,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>80681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>8963</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12762,13 +12762,13 @@
     <xdr:from>
       <xdr:col>57</xdr:col>
       <xdr:colOff>34064</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>89</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12836,13 +12836,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>92512</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>109681</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12852,8 +12852,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7817224" y="25540446"/>
-          <a:ext cx="881406" cy="710317"/>
+          <a:off x="8225759" y="25032019"/>
+          <a:ext cx="923667" cy="702633"/>
           <a:chOff x="12102353" y="7055224"/>
           <a:chExt cx="881406" cy="495164"/>
         </a:xfrm>
@@ -12978,13 +12978,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>51549</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>109681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13031,13 +13031,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13093,13 +13093,13 @@
     <xdr:from>
       <xdr:col>76</xdr:col>
       <xdr:colOff>35856</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
       <xdr:colOff>116538</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>98613</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13109,8 +13109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10255621" y="25181859"/>
-          <a:ext cx="1694329" cy="1783978"/>
+          <a:off x="10790942" y="24675994"/>
+          <a:ext cx="1778853" cy="1766048"/>
           <a:chOff x="9314329" y="15015883"/>
           <a:chExt cx="1694329" cy="1281954"/>
         </a:xfrm>
@@ -13538,13 +13538,13 @@
     <xdr:from>
       <xdr:col>79</xdr:col>
       <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>98613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>143436</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13591,14 +13591,14 @@
     <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>35863</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>98610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>116543</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13677,13 +13677,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13726,13 +13726,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>17935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13777,13 +13777,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>62754</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>125504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13879,13 +13879,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>62754</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>17927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>116539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13965,13 +13965,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
       <xdr:colOff>35863</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>31377</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14015,13 +14015,13 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>107578</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14077,13 +14077,13 @@
     <xdr:from>
       <xdr:col>72</xdr:col>
       <xdr:colOff>116543</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>31377</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14127,13 +14127,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>98613</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>8963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>71719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14213,13 +14213,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>17931</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>8963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>71719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14286,13 +14286,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>62759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>143441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14348,13 +14348,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>17935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14398,13 +14398,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14473,13 +14473,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>215152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>233083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14553,13 +14553,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14664,13 +14664,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14744,13 +14744,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14822,13 +14822,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>188258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14900,13 +14900,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>53787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14955,13 +14955,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>53787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>206187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15011,13 +15011,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15063,13 +15063,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>75453</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>206188</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15116,13 +15116,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85165</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>233083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85166</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15166,13 +15166,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>119507</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15182,8 +15182,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4455459" y="44608376"/>
-          <a:ext cx="773930" cy="708212"/>
+          <a:off x="4687901" y="43179146"/>
+          <a:ext cx="809149" cy="700528"/>
           <a:chOff x="2967317" y="17391529"/>
           <a:chExt cx="773930" cy="493059"/>
         </a:xfrm>
@@ -15305,13 +15305,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15379,13 +15379,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15431,13 +15431,13 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>62750</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>62750</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15483,13 +15483,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15545,13 +15545,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15607,13 +15607,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>116540</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125500</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>35861</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15654,13 +15654,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125505</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>35860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>215154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15716,13 +15716,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125505</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>35862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>215156</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15778,13 +15778,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15827,13 +15827,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>116540</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>125500</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>44826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15874,13 +15874,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>107576</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15921,13 +15921,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>17931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15937,8 +15937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="672352" y="51089860"/>
-          <a:ext cx="5423648" cy="2841811"/>
+          <a:off x="700527" y="49591474"/>
+          <a:ext cx="5712440" cy="2813636"/>
           <a:chOff x="1084728" y="41972754"/>
           <a:chExt cx="5423648" cy="2841811"/>
         </a:xfrm>
@@ -17293,13 +17293,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>242046</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -17309,8 +17309,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="672352" y="56881059"/>
-          <a:ext cx="7763436" cy="4356846"/>
+          <a:off x="700527" y="55321200"/>
+          <a:ext cx="8171971" cy="4313303"/>
           <a:chOff x="672352" y="48167365"/>
           <a:chExt cx="7763436" cy="4356846"/>
         </a:xfrm>
@@ -19679,13 +19679,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>98613</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>62751</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19695,8 +19695,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="672353" y="62779835"/>
-          <a:ext cx="7763436" cy="4087904"/>
+          <a:off x="707571" y="61158504"/>
+          <a:ext cx="8164928" cy="4044361"/>
           <a:chOff x="672353" y="54066141"/>
           <a:chExt cx="7763436" cy="4087904"/>
         </a:xfrm>
@@ -21504,13 +21504,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>233078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>76972</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -21520,8 +21520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="833718" y="68974443"/>
-          <a:ext cx="6370195" cy="4733369"/>
+          <a:off x="875980" y="67289078"/>
+          <a:ext cx="6701249" cy="4682142"/>
           <a:chOff x="833718" y="60260749"/>
           <a:chExt cx="6370195" cy="4733369"/>
         </a:xfrm>
@@ -23454,13 +23454,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>170328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>233083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -23524,13 +23524,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>161366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -23540,8 +23540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1048871" y="40099131"/>
-          <a:ext cx="555811" cy="744070"/>
+          <a:off x="1098177" y="38718566"/>
+          <a:ext cx="583986" cy="736386"/>
           <a:chOff x="1210235" y="16324729"/>
           <a:chExt cx="526452" cy="851647"/>
         </a:xfrm>
@@ -23693,13 +23693,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>188258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -23709,8 +23709,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2017060" y="40610117"/>
-          <a:ext cx="699246" cy="842684"/>
+          <a:off x="2122715" y="39224429"/>
+          <a:ext cx="734465" cy="832439"/>
           <a:chOff x="2456330" y="40959740"/>
           <a:chExt cx="872098" cy="1107243"/>
         </a:xfrm>
@@ -23886,13 +23886,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>125504</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>71714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>116538</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -23902,8 +23902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2142563" y="41945855"/>
-          <a:ext cx="546848" cy="286871"/>
+          <a:off x="2248218" y="40544800"/>
+          <a:ext cx="575023" cy="284309"/>
           <a:chOff x="2483223" y="42537529"/>
           <a:chExt cx="654424" cy="430306"/>
         </a:xfrm>
@@ -24038,13 +24038,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>102462</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>204127</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24093,13 +24093,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8968</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>206190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>56367</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>32867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24147,7 +24147,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>215152</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619721" cy="275717"/>
@@ -24203,7 +24203,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>53789</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>53787</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627529" cy="425758"/>
@@ -24261,7 +24261,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627529" cy="248851"/>
@@ -24314,13 +24314,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>81295</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>101597</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -24367,13 +24367,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>170328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>233083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24436,13 +24436,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>173527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>80681</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24505,13 +24505,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>80682</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>21127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>197223</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24574,13 +24574,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>128704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24643,13 +24643,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>116543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>26895</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -24711,7 +24711,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>107579</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>35857</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627529" cy="248851"/>
@@ -24772,13 +24772,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>71714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>26893</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>116538</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -24788,8 +24788,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3783104" y="41945855"/>
-          <a:ext cx="546848" cy="286871"/>
+          <a:off x="3980328" y="40544800"/>
+          <a:ext cx="575022" cy="284309"/>
           <a:chOff x="2483223" y="42537529"/>
           <a:chExt cx="654424" cy="430306"/>
         </a:xfrm>
@@ -24924,7 +24924,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>125508</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>170327</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627529" cy="248851"/>
@@ -24976,13 +24976,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25026,7 +25026,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>53791</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>107574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627529" cy="405367"/>
@@ -25086,7 +25086,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>89649</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>107574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="627529" cy="405367"/>
@@ -25146,13 +25146,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>35855</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>116540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>53784</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -25162,8 +25162,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5683620" y="40054305"/>
-          <a:ext cx="555811" cy="744070"/>
+          <a:off x="5979455" y="38673740"/>
+          <a:ext cx="583986" cy="736386"/>
           <a:chOff x="1210235" y="16324729"/>
           <a:chExt cx="526452" cy="851647"/>
         </a:xfrm>
@@ -25315,13 +25315,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>107575</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>233082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -25331,8 +25331,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5486399" y="40896988"/>
-          <a:ext cx="923365" cy="528918"/>
+          <a:off x="5768146" y="39508739"/>
+          <a:ext cx="972671" cy="521234"/>
           <a:chOff x="3436620" y="4907280"/>
           <a:chExt cx="914400" cy="460205"/>
         </a:xfrm>
@@ -25460,13 +25460,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25510,13 +25510,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -25560,7 +25560,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>71720</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>46291</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="995079" cy="248851"/>
@@ -25928,9 +25928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:BM283"/>
+  <dimension ref="D2:BM279"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CP92" sqref="CP92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25959,7 +25961,7 @@
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="5:12" x14ac:dyDescent="0.25">
@@ -26099,410 +26101,410 @@
     </row>
     <row r="87" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D87" s="4" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D132" s="6" t="s">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E132" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E134" t="s">
-        <v>186</v>
+    <row r="134" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E136" s="2" t="s">
-        <v>187</v>
+    <row r="135" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H138" t="s">
-        <v>189</v>
+    <row r="138" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
-        <v>190</v>
+    <row r="139" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
-        <v>192</v>
+    <row r="141" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E142" t="s">
-        <v>193</v>
+    <row r="143" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H143" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H144" t="s">
-        <v>195</v>
+    <row r="144" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H145" t="s">
-        <v>196</v>
+      <c r="F145" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E147" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>252</v>
+      <c r="H147" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F149" t="s">
-        <v>253</v>
+      <c r="E149" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G150" t="s">
-        <v>254</v>
+      <c r="E150" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H151" s="3" t="s">
-        <v>255</v>
+      <c r="F151" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E153" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E154" t="s">
-        <v>257</v>
+      <c r="F154" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F155" t="s">
-        <v>258</v>
+      <c r="F155" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="156" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="157" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E157" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F158" s="10" t="s">
-        <v>262</v>
+      <c r="G157" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="159" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F159" s="10" t="s">
+      <c r="F159" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="160" spans="5:8" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G161" t="s">
-        <v>261</v>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E174" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F163" t="s">
-        <v>264</v>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>266</v>
       </c>
     </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G164" t="s">
-        <v>265</v>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="178" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="E178" s="2" t="s">
-        <v>266</v>
+    <row r="177" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="F179" t="s">
-        <v>267</v>
+      <c r="D179" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="F180" t="s">
-        <v>268</v>
+      <c r="E180" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="181" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="F181" t="s">
-        <v>269</v>
+    <row r="185" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="T185" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="183" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="D183" s="6" t="s">
-        <v>197</v>
+    <row r="188" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="AO188" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="184" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="E184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="189" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="T189" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN189" t="s">
-        <v>201</v>
+    <row r="190" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="AN190" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="4:41" x14ac:dyDescent="0.25">
-      <c r="AO192" t="s">
-        <v>203</v>
+      <c r="AN192" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="194" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AN194" t="s">
-        <v>204</v>
+    <row r="193" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="AP193" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="196" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AN196" t="s">
-        <v>205</v>
+    <row r="195" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AP197" t="s">
-        <v>206</v>
+      <c r="D197" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="199" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="I199" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ199" t="s">
+    <row r="198" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="D200" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D201" s="6" t="s">
-        <v>202</v>
+      <c r="E201" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="202" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E202" t="s">
-        <v>208</v>
+    <row r="203" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="E203" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D204" s="6" t="s">
-        <v>210</v>
+      <c r="F204" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E205" t="s">
-        <v>211</v>
+      <c r="F205" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="207" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E207" s="2" t="s">
-        <v>212</v>
+    <row r="206" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="208" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F208" t="s">
-        <v>213</v>
+    <row r="212" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="K212" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="209" spans="6:56" x14ac:dyDescent="0.25">
-      <c r="F209" t="s">
+    <row r="217" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="AV217" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="AV218" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="R220" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="6:56" x14ac:dyDescent="0.25">
-      <c r="F210" t="s">
+    <row r="222" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="E222" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="216" spans="6:56" x14ac:dyDescent="0.25">
-      <c r="K216" t="s">
-        <v>218</v>
+    <row r="224" spans="5:56" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="221" spans="6:56" x14ac:dyDescent="0.25">
-      <c r="AV221" t="s">
-        <v>216</v>
-      </c>
-      <c r="BD221" t="s">
-        <v>220</v>
+    <row r="225" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="222" spans="6:56" x14ac:dyDescent="0.25">
-      <c r="AV222" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD222" t="s">
-        <v>219</v>
+    <row r="226" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="224" spans="6:56" x14ac:dyDescent="0.25">
-      <c r="R224" t="s">
-        <v>215</v>
+    <row r="228" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="226" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="E226" s="2" t="s">
-        <v>221</v>
+    <row r="229" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="227" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="F227" t="s">
-        <v>223</v>
+    <row r="230" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="228" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="F228" t="s">
-        <v>224</v>
+    <row r="233" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="N233" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA233" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB233" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="229" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="F229" t="s">
-        <v>225</v>
+    <row r="234" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="N234" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA234" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO234" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB234" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="230" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="F230" t="s">
-        <v>226</v>
+    <row r="241" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="BM241" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="232" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="F232" t="s">
-        <v>227</v>
+    <row r="242" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="BM242" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="233" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="F233" t="s">
-        <v>228</v>
+    <row r="252" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="E252" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="234" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="F234" t="s">
-        <v>229</v>
+    <row r="253" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="237" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="N237" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA237" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO237" t="s">
-        <v>235</v>
-      </c>
-      <c r="BB237" s="3" t="s">
-        <v>236</v>
+    <row r="254" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="F254" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="238" spans="5:54" x14ac:dyDescent="0.25">
-      <c r="N238" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA238" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO238" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB238" s="3" t="s">
-        <v>237</v>
+    <row r="255" spans="5:65" x14ac:dyDescent="0.25">
+      <c r="G255" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="245" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="BM245" t="s">
-        <v>238</v>
+    <row r="260" spans="18:40" x14ac:dyDescent="0.25">
+      <c r="R260" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN260" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="246" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="BM246" t="s">
-        <v>239</v>
+    <row r="274" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F274" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="256" spans="5:65" x14ac:dyDescent="0.25">
-      <c r="E256" s="2" t="s">
-        <v>240</v>
+    <row r="275" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F275" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="257" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="F257" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="258" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="F258" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="259" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="G259" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="264" spans="6:40" x14ac:dyDescent="0.25">
-      <c r="R264" t="s">
-        <v>244</v>
-      </c>
-      <c r="AN264" t="s">
-        <v>245</v>
+    <row r="276" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G276" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="278" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F278" t="s">
-        <v>246</v>
+      <c r="E278" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="279" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F279" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G280" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E282" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F283" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -26820,232 +26822,232 @@
       </c>
     </row>
     <row r="78" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8" t="s">
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8" t="s">
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8" t="s">
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AA78" s="8"/>
-      <c r="AB78" s="8"/>
-      <c r="AC78" s="8"/>
-      <c r="AD78" s="8"/>
-      <c r="AE78" s="8"/>
-      <c r="AF78" s="8"/>
-      <c r="AG78" s="8"/>
-      <c r="AH78" s="8"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
+      <c r="AH78" s="9"/>
     </row>
     <row r="79" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9" t="s">
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9" t="s">
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9" t="s">
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AA79" s="9"/>
-      <c r="AB79" s="9"/>
-      <c r="AC79" s="9"/>
-      <c r="AD79" s="9"/>
-      <c r="AE79" s="9"/>
-      <c r="AF79" s="9"/>
-      <c r="AG79" s="9"/>
-      <c r="AH79" s="9"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+      <c r="AH79" s="10"/>
     </row>
     <row r="80" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7" t="s">
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7" t="s">
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="7" t="s">
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AA80" s="7"/>
-      <c r="AB80" s="7"/>
-      <c r="AC80" s="7"/>
-      <c r="AD80" s="7"/>
-      <c r="AE80" s="7"/>
-      <c r="AF80" s="7"/>
-      <c r="AG80" s="7"/>
-      <c r="AH80" s="7"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
+      <c r="AE80" s="8"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
     </row>
     <row r="81" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7" t="s">
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7" t="s">
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
-      <c r="Z81" s="7" t="s">
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AA81" s="7"/>
-      <c r="AB81" s="7"/>
-      <c r="AC81" s="7"/>
-      <c r="AD81" s="7"/>
-      <c r="AE81" s="7"/>
-      <c r="AF81" s="7"/>
-      <c r="AG81" s="7"/>
-      <c r="AH81" s="7"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
     </row>
     <row r="82" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7" t="s">
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7" t="s">
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="7" t="s">
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA82" s="7"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="7"/>
-      <c r="AD82" s="7"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="7"/>
-      <c r="AG82" s="7"/>
-      <c r="AH82" s="7"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8"/>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="8"/>
+      <c r="AH82" s="8"/>
     </row>
     <row r="83" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7" t="s">
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7" t="s">
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="7" t="s">
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="7"/>
-      <c r="AD83" s="7"/>
-      <c r="AE83" s="7"/>
-      <c r="AF83" s="7"/>
-      <c r="AG83" s="7"/>
-      <c r="AH83" s="7"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="8"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
     </row>
     <row r="85" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
@@ -27119,7 +27121,7 @@
     <row r="101" spans="4:18" x14ac:dyDescent="0.2">
       <c r="F101" s="3"/>
       <c r="G101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="4:18" x14ac:dyDescent="0.2">
@@ -27359,7 +27361,7 @@
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D176" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="kubernetes理解" sheetId="3" r:id="rId1"/>
     <sheet name="command" sheetId="1" r:id="rId2"/>
     <sheet name="command_linux" sheetId="2" r:id="rId3"/>
+    <sheet name="db connection failure from pod" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="289">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -2981,6 +2983,109 @@
   </si>
   <si>
     <t>PodのLife cycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PODから外部のDBサーバーへアクセスできず、デプロイが失敗する。</t>
+    <rPh sb="5" eb="7">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因を調べてみた</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhostからのアクセスしか許可していないため、DB Connect failureでデプロイが失敗していた。</t>
+    <rPh sb="18" eb="20">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対策としては、どこからでもアクセスできるユーザーを作って利用する。</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRANT ALL PRIVILEGES ON *.* TO 'blog_user'@'%' WITH GRANT OPTION;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 「%」はどこからでも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[root@m-k8s ~]# kubectl get pods</t>
+  </si>
+  <si>
+    <t>NAME                             READY   STATUS    RESTARTS   AGE</t>
+  </si>
+  <si>
+    <t>jenkins-66765c9fb-2v2bl          2/2     Running   10         3d5h</t>
+  </si>
+  <si>
+    <t>jeus-blog-stg-64f76dd879-78wxf   1/1     Running   0          22m</t>
+  </si>
+  <si>
+    <t>[root@m-k8s ~]# kubectl get deployments</t>
+  </si>
+  <si>
+    <t>NAME            READY   UP-TO-DATE   AVAILABLE   AGE</t>
+  </si>
+  <si>
+    <t>jenkins         1/1     1            1           3d5h</t>
+  </si>
+  <si>
+    <t>jeus-blog-stg   1/1     1            1           22m</t>
+  </si>
+  <si>
+    <t>[root@m-k8s ~]#</t>
+  </si>
+  <si>
+    <t>デプロイできた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE USER 'blog_user' IDENTIFIED BY '1234';</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker image作成後、デプロイ実施した。</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3092,7 +3197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3143,11 +3248,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3159,6 +3326,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -25617,6 +25790,600 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>512762</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>20156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="335280"/>
+          <a:ext cx="12704762" cy="6390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322667</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>18524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7711440"/>
+          <a:ext cx="9466667" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="액자 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="9616440"/>
+          <a:ext cx="3383280" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1054"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="액자 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="10546080"/>
+          <a:ext cx="3383280" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1054"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322667</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>18524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13746480"/>
+          <a:ext cx="9466667" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="액자 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731520" y="15422880"/>
+          <a:ext cx="3383280" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1054"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>158806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18440400"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="액자 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4966447" y="22662776"/>
+          <a:ext cx="2043953" cy="573742"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1054"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>591671</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="액자 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="591671" y="1272987"/>
+          <a:ext cx="12729882" cy="448237"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1054"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>349623</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>573740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="모서리가 둥근 사각형 설명선 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13151223" y="2124635"/>
+          <a:ext cx="2662517" cy="1120588"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54840"/>
+            <a:gd name="adj2" fmla="val -87900"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Blog </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をデプロイしたら失敗した。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>原因がわからず、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Jenkins POD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の中でモジュール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(jar)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を手動でデプロイしてみたたら、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB Connection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラーが発生した</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -25930,7 +26697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:BM279"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="CP92" sqref="CP92"/>
     </sheetView>
   </sheetViews>
@@ -27474,4 +28241,131 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B42:I182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Kubernetes.xlsx
+++ b/Kubernetes.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="kubernetes理解" sheetId="3" r:id="rId1"/>
     <sheet name="command" sheetId="1" r:id="rId2"/>
     <sheet name="command_linux" sheetId="2" r:id="rId3"/>
     <sheet name="db connection failure from pod" sheetId="4" r:id="rId4"/>
+    <sheet name="prometheus deployment failure" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="387">
   <si>
     <t>node&amp;pod確認</t>
     <rPh sb="8" eb="10">
@@ -3088,12 +3088,457 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://github.com/sambunarayan/Servers.git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/sambunarayan/Servers/tree/main/jeus-k8sInfra/prometheus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# sh prometheus-install.sh</t>
+  </si>
+  <si>
+    <t>NAME: prometheus</t>
+  </si>
+  <si>
+    <t>LAST DEPLOYED: Tue Jan  3 17:44:52 2023</t>
+  </si>
+  <si>
+    <t>NAMESPACE: default</t>
+  </si>
+  <si>
+    <t>STATUS: deployed</t>
+  </si>
+  <si>
+    <t>REVISION: 1</t>
+  </si>
+  <si>
+    <t>TEST SUITE: None</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>The Prometheus server can be accessed via port 80 on the following DNS name from within your cluster:</t>
+  </si>
+  <si>
+    <t>prometheus-server.default.svc.cluster.local</t>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# kubectl get pods</t>
+  </si>
+  <si>
+    <t>NAME                                             READY   STATUS             RESTARTS   AGE</t>
+  </si>
+  <si>
+    <t>jenkins-66765c9fb-2v2bl                          2/2     Running            12         4d</t>
+  </si>
+  <si>
+    <t>jeus-blog-stg-6f667c47b-7x422                    1/1     Running            0          160m</t>
+  </si>
+  <si>
+    <t>prometheus-kube-state-metrics-7bc49db5c5-6b9cs   1/1     Running            0          38s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-hsg5s                   1/1     Running            0          38s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-hzf8r                   1/1     Running            0          38s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-mbgn7                   1/1     Running            0          38s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-pmmbm                   1/1     Running            0          38s</t>
+  </si>
+  <si>
+    <t>prometheus-server-6d77896bb4-44vdn               1/2     CrashLoopBackOff   2          38s</t>
+  </si>
+  <si>
+    <t>のprometheus-install.shを実行してPrometheusをインストールした。</t>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# ls -ltr /nfs_shared/</t>
+  </si>
+  <si>
+    <t>total 4</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x. 20 vagrant vagrant 4096 Jan  3 14:05 jenkins</t>
+  </si>
+  <si>
+    <t>drwxrwxrwx.  4 root    root      32 Jan  3 15:12 blog</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x.  2 root    root       6 Jan  3 17:05 prometheus</t>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# ls -ltr /nfs_shared/prometheus/</t>
+  </si>
+  <si>
+    <t>total 0</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x. 2 root root 6 Jan  3 17:06 server</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x. 2 root root 6 Jan  3 17:07 alertmanager</t>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# kubectl get pvc</t>
+  </si>
+  <si>
+    <t>NAME                STATUS   VOLUME              CAPACITY   ACCESS MODES   STORAGECLASS   AGE</t>
+  </si>
+  <si>
+    <t>jenkins             Bound    jenkins             10Gi       RWX                           89d</t>
+  </si>
+  <si>
+    <t>jeus-blog-pvc       Bound    jeus-blog-pv        10Gi       RWX                           156m</t>
+  </si>
+  <si>
+    <t>prometheus-server   Bound    prometheus-server   10Gi       RWX                           9m6s</t>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# kubectl get pv</t>
+  </si>
+  <si>
+    <t>NAME                CAPACITY   ACCESS MODES   RECLAIM POLICY   STATUS   CLAIM                       STORAGECLASS   REASON   AGE</t>
+  </si>
+  <si>
+    <t>jenkins             10Gi       RWX            Retain           Bound    default/jenkins                                     89d</t>
+  </si>
+  <si>
+    <t>jeus-blog-pv        10Gi       RWX            Retain           Bound    default/jeus-blog-pvc                               3h11m</t>
+  </si>
+  <si>
+    <t>prometheus-server   10Gi       RWX            Retain           Bound    default/prometheus-server                           44m</t>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# kubectl apply -f prometheus-server-volume.yaml</t>
+  </si>
+  <si>
+    <t>persistentvolume/prometheus-server created</t>
+  </si>
+  <si>
+    <t>persistentvolumeclaim/prometheus-server created</t>
+  </si>
+  <si>
+    <t>まず、PV, PVC作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>install OK!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??? POD作成に失敗している。。</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# kubectl describe pod prometheus-server-6d77896bb4-44vdn</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Type     Reason     Age                From               Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ----     ------     ----               ----               -------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Scheduled  58s                default-scheduler  Successfully assigned default/prometheus-server-6d77896bb4-cbgr7 to w3-k8s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Pulling    56s                kubelet, w3-k8s    Pulling image "jimmidyson/configmap-reload:v0.3.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Pulled     51s                kubelet, w3-k8s    Successfully pulled image "jimmidyson/configmap-reload:v0.3.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Created    51s                kubelet, w3-k8s    Created container prometheus-server-configmap-reload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Started    50s                kubelet, w3-k8s    Started container prometheus-server-configmap-reload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Pulling    50s                kubelet, w3-k8s    Pulling image "prom/prometheus:v2.19.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Pulled     35s                kubelet, w3-k8s    Successfully pulled image "prom/prometheus:v2.19.0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Created    13s (x3 over 34s)  kubelet, w3-k8s    Created container prometheus-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Started    13s (x3 over 33s)  kubelet, w3-k8s    Started container prometheus-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal   Pulled     13s (x2 over 33s)  kubelet, w3-k8s    Container image "prom/prometheus:v2.19.0" already present on machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Warning  BackOff    8s (x5 over 32s)   kubelet, w3-k8s    Back-off restarting failed container</t>
+  </si>
+  <si>
+    <t>PODの詳細を見てみた</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？？知らんけど失敗している。。このときは大体POD作るときに内部の設定問題が原因のときが多い</t>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PVC,PV 問題とか、imageがプルできないときとか</t>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV, PVC 確認してみよう</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果、問題なし</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>directoryに権限ないかもしれないから、確認してみよう。</t>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題なし</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他ユーザー、他グループにwrite権限がないけど、大丈夫？</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prometheusからファイル書き出すと思うけど。。ちょっと怪しい。。</t>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再作成してみよう</t>
+    <rPh sb="0" eb="3">
+      <t>サイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# ll /nfs_shared/</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x.  3 root    root      20 Jan  3 18:01 prometheus</t>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]# ll /nfs_shared/prometheus/</t>
+  </si>
+  <si>
+    <t>drwxr-xr-x. 2 vagrant vagrant 6 Jan  3 18:01 server</t>
+  </si>
+  <si>
+    <t>directory再作成</t>
+    <rPh sb="9" eb="12">
+      <t>サイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※前回は直接directory作成後、「kubectl apply -f prometheus-server-volume.yaml」でPV, PVC作成した</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は手動でdirectory作成せず、「prometheus-server-preconfig.sh」を実行してdirectory, pv, pvcを作成してみた。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jeus-blog-pv        10Gi       RWX            Retain           Bound    default/jeus-blog-pvc                               3h18m</t>
+  </si>
+  <si>
+    <t>prometheus-server   10Gi       RWX            Retain           Bound    default/prometheus-server                           20s</t>
+  </si>
+  <si>
+    <t>jeus-blog-pvc       Bound    jeus-blog-pv        10Gi       RWX                           3h18m</t>
+  </si>
+  <si>
+    <t>prometheus-server   Bound    prometheus-server   10Gi       RWX                           25s</t>
+  </si>
+  <si>
+    <t>[root@m-k8s prometheus]#</t>
+  </si>
+  <si>
+    <t>LAST DEPLOYED: Tue Jan  3 18:01:56 2023</t>
+  </si>
+  <si>
+    <t>NAME                                             READY   STATUS    RESTARTS   AGE</t>
+  </si>
+  <si>
+    <t>jenkins-66765c9fb-2v2bl                          2/2     Running   12         4d1h</t>
+  </si>
+  <si>
+    <t>jeus-blog-stg-6f667c47b-7x422                    1/1     Running   0          178m</t>
+  </si>
+  <si>
+    <t>prometheus-kube-state-metrics-7bc49db5c5-5fxzs   1/1     Running   0          53s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-28jrf                   1/1     Running   0          53s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-8fwds                   1/1     Running   0          53s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-hsdlz                   1/1     Running   0          53s</t>
+  </si>
+  <si>
+    <t>prometheus-node-exporter-sq6g5                   1/1     Running   0          53s</t>
+  </si>
+  <si>
+    <t>prometheus-server-6d77896bb4-xlb7n               2/2     Running   0          53s</t>
+  </si>
+  <si>
+    <t>・・・省略</t>
+    <rPh sb="3" eb="5">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できた！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3182,8 +3627,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3193,6 +3669,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3311,10 +3805,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3323,18 +3818,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -27589,232 +28091,232 @@
       </c>
     </row>
     <row r="78" spans="6:34" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9" t="s">
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9" t="s">
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9" t="s">
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AA78" s="9"/>
-      <c r="AB78" s="9"/>
-      <c r="AC78" s="9"/>
-      <c r="AD78" s="9"/>
-      <c r="AE78" s="9"/>
-      <c r="AF78" s="9"/>
-      <c r="AG78" s="9"/>
-      <c r="AH78" s="9"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="21"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="21"/>
+      <c r="AG78" s="21"/>
+      <c r="AH78" s="21"/>
     </row>
     <row r="79" spans="6:34" ht="16.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10" t="s">
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10" t="s">
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
-      <c r="Z79" s="10" t="s">
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+      <c r="X79" s="22"/>
+      <c r="Y79" s="22"/>
+      <c r="Z79" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AA79" s="10"/>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
-      <c r="AD79" s="10"/>
-      <c r="AE79" s="10"/>
-      <c r="AF79" s="10"/>
-      <c r="AG79" s="10"/>
-      <c r="AH79" s="10"/>
+      <c r="AA79" s="22"/>
+      <c r="AB79" s="22"/>
+      <c r="AC79" s="22"/>
+      <c r="AD79" s="22"/>
+      <c r="AE79" s="22"/>
+      <c r="AF79" s="22"/>
+      <c r="AG79" s="22"/>
+      <c r="AH79" s="22"/>
     </row>
     <row r="80" spans="6:34" x14ac:dyDescent="0.2">
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8" t="s">
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8" t="s">
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8" t="s">
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AA80" s="8"/>
-      <c r="AB80" s="8"/>
-      <c r="AC80" s="8"/>
-      <c r="AD80" s="8"/>
-      <c r="AE80" s="8"/>
-      <c r="AF80" s="8"/>
-      <c r="AG80" s="8"/>
-      <c r="AH80" s="8"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="20"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="20"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+      <c r="AH80" s="20"/>
     </row>
     <row r="81" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8" t="s">
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8" t="s">
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="8" t="s">
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="AA81" s="8"/>
-      <c r="AB81" s="8"/>
-      <c r="AC81" s="8"/>
-      <c r="AD81" s="8"/>
-      <c r="AE81" s="8"/>
-      <c r="AF81" s="8"/>
-      <c r="AG81" s="8"/>
-      <c r="AH81" s="8"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
     </row>
     <row r="82" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8" t="s">
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8" t="s">
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="8" t="s">
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="AA82" s="8"/>
-      <c r="AB82" s="8"/>
-      <c r="AC82" s="8"/>
-      <c r="AD82" s="8"/>
-      <c r="AE82" s="8"/>
-      <c r="AF82" s="8"/>
-      <c r="AG82" s="8"/>
-      <c r="AH82" s="8"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+      <c r="AH82" s="20"/>
     </row>
     <row r="83" spans="4:34" x14ac:dyDescent="0.2">
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8" t="s">
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8" t="s">
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="8"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="8" t="s">
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA83" s="8"/>
-      <c r="AB83" s="8"/>
-      <c r="AC83" s="8"/>
-      <c r="AD83" s="8"/>
-      <c r="AE83" s="8"/>
-      <c r="AF83" s="8"/>
-      <c r="AG83" s="8"/>
-      <c r="AH83" s="8"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
     </row>
     <row r="85" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
@@ -28133,6 +28635,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z83:AH83"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:Y79"/>
+    <mergeCell ref="T80:Y80"/>
+    <mergeCell ref="T81:Y81"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T83:Y83"/>
+    <mergeCell ref="Z78:AH78"/>
+    <mergeCell ref="Z79:AH79"/>
+    <mergeCell ref="Z80:AH80"/>
+    <mergeCell ref="Z81:AH81"/>
+    <mergeCell ref="Z82:AH82"/>
     <mergeCell ref="N83:S83"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:M79"/>
@@ -28145,18 +28659,6 @@
     <mergeCell ref="N80:S80"/>
     <mergeCell ref="N81:S81"/>
     <mergeCell ref="N82:S82"/>
-    <mergeCell ref="Z83:AH83"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:Y79"/>
-    <mergeCell ref="T80:Y80"/>
-    <mergeCell ref="T81:Y81"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T83:Y83"/>
-    <mergeCell ref="Z78:AH78"/>
-    <mergeCell ref="Z79:AH79"/>
-    <mergeCell ref="Z80:AH80"/>
-    <mergeCell ref="Z81:AH81"/>
-    <mergeCell ref="Z82:AH82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28247,7 +28749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B42:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
@@ -28279,28 +28781,28 @@
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="13"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="16"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
@@ -28368,4 +28870,748 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="O127" sqref="O127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B49" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B50" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B51" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B52" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B53" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B54" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B55" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B56" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B57" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I59" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I60" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B62" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B63" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B64" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B72" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B73" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B75" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B76" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B81" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="J81" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B86" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="J86" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J88" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B91" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B93" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B97" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B98" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B99" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B100" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D102" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D103" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B106" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B107" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B108" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B109" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B110" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B111" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B112" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B129" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B131" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B132" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B133" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B134" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B135" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B136" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B137" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B138" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B139" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B140" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B141" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="M141" s="18"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B142" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>